--- a/Rules for IDPM Cluster 2.xlsx
+++ b/Rules for IDPM Cluster 2.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="231">
   <si>
     <t>Then</t>
   </si>
@@ -266,466 +266,469 @@
     <t>[More than 2 respond unit arrived] AND [Police first arrived]</t>
   </si>
   <si>
+    <t>[Shoulder lane blocked] AND [Police first arrived]</t>
+  </si>
+  <si>
+    <t>([More than 7 respond units arrived] AND [Auxiliary lane blocked]) OR [Snow-ice Pavement]</t>
+  </si>
+  <si>
+    <t>[More than 1 shoulder lane blocked] AND ([More than 5 respond unit arrived] OR [Fireboard first arrived])</t>
+  </si>
+  <si>
+    <t>([AOC center] AND [Pickup involved]) OR [More than 1 auxiliary lane blocked]</t>
+  </si>
+  <si>
+    <t>[SOC center] AND [More than 5 resopnd unit arrived]</t>
+  </si>
+  <si>
+    <t>[More than 7 respond unit arrived]</t>
+  </si>
+  <si>
+    <t>([Fireboard arrived] AND [Snow-ice pavement]) OR ([Van involved] AND [Night])</t>
+  </si>
+  <si>
+    <t>[More than 3 respond units arrived] AND [Auxiliary lane blocked]</t>
+  </si>
+  <si>
+    <t>[Fireboard FIRST arrived]</t>
+  </si>
+  <si>
+    <t>[Bus involved] OR [Chemical pavement] OR [More than 1 truck involved]</t>
+  </si>
+  <si>
+    <t>[More than 4 respond units arrived]</t>
+  </si>
+  <si>
+    <t>[More than 3 travel lane blocked]</t>
+  </si>
+  <si>
+    <t>[Holiday] AND [Truck involved]</t>
+  </si>
+  <si>
+    <t>[Weekend] AND [Fireboard first arrived]</t>
+  </si>
+  <si>
+    <t>([More than 5 respond units arrived] OR [More than 1 CHART arrived]) AND [More than 1 tow service arrived]</t>
+  </si>
+  <si>
+    <t>[More than 5 lane blocked]</t>
+  </si>
+  <si>
+    <t>[Weekend] AND [More than 4 respond unit arrived]</t>
+  </si>
+  <si>
+    <t>[More than 4 lane blocked] AND [More than 2 CHART arrived]</t>
+  </si>
+  <si>
+    <t>[Wet pavement] AND [More than 4 lane blocked]</t>
+  </si>
+  <si>
+    <t>[No truck involved]</t>
+  </si>
+  <si>
+    <t>[More than 1 shoulder lane blocked]</t>
+  </si>
+  <si>
+    <t>[Winter] AND [Pickup involved]</t>
+  </si>
+  <si>
+    <t>[More than 2 respond unit arrived] AND [Vehicle over-turned]</t>
+  </si>
+  <si>
+    <t>[AOC center] AND [Fireboard arrived]</t>
+  </si>
+  <si>
+    <t>([I-83] AND [Tow service arrived]) OR ([I-395] AND [More than 2 CHART arrived])</t>
+  </si>
+  <si>
+    <t>[Truck involved] AND [More than 1 police arrived]</t>
+  </si>
+  <si>
+    <t>[Tow service arrived] AND [Pickup involved]</t>
+  </si>
+  <si>
+    <t>[More than 1 truck involved] OR [Vehicle jack-knifed] OR [Vehicle lost-load]</t>
+  </si>
+  <si>
+    <t>[Toll-lane blocked] AND [More than 3 respond unit arrived]</t>
+  </si>
+  <si>
+    <t>[More than 2 vehicle involved] AND [More than 6 respond unit arrived</t>
+  </si>
+  <si>
+    <t>[Shoulder lane blocked] AND [More than 6 respond unit arrived]</t>
+  </si>
+  <si>
+    <t>[Auxiliary lane blocked] AND [More than 1 tow service arrived]</t>
+  </si>
+  <si>
+    <t>[More than 3 vehicles involved] AND [More than 4 respond unit arrived]</t>
+  </si>
+  <si>
+    <t>[More than 2 vehicles involved] AND [Truck involved]</t>
+  </si>
+  <si>
+    <t>([More than 1 CHART arrived] AND [Vehicle over-turned]) OR [Truck lost-load]</t>
+  </si>
+  <si>
+    <t>[More than 2 CHART arrived] AND [Truck over-turned]</t>
+  </si>
+  <si>
+    <t>[Auxiliary lane blocked] AND [Vehicle over-turned]</t>
+  </si>
+  <si>
+    <t>([Weekend] OR [More than 1 vehicle involved]) AND [Tow service arrived]</t>
+  </si>
+  <si>
+    <t>[Non-peak hour] AND [Truck involved]</t>
+  </si>
+  <si>
+    <t>([Tow service arrived] AND [Police first arrived]) OR ([Snow-ice pavement] AND [Vehicle over-turned])</t>
+  </si>
+  <si>
+    <t>[More than 3 vehicles involved] AND [More than 4 respond units arrived]</t>
+  </si>
+  <si>
+    <t>[Truck involved] AND [More than 5 respond units arrived]</t>
+  </si>
+  <si>
+    <t>[Weekend] AND [Night] AND [More than 2 vehicles involved] AND [Tow service arrived]</t>
+  </si>
+  <si>
+    <t>[Shoulder lane blocked] AND [Truck involved]</t>
+  </si>
+  <si>
+    <t>([AOC center] AND [Pickup involved]) OR [Chemical wet pavement]</t>
+  </si>
+  <si>
+    <t>[MD 200] AND [Tow service arrived]</t>
+  </si>
+  <si>
+    <t>[More than 1 truck involved] OR [Vehicle jacknifed]</t>
+  </si>
+  <si>
+    <t>[More than 2 vehicles involved] AND [More than 1 police arrived]</t>
+  </si>
+  <si>
+    <t>[More than 1 Tow service arrived] OR [Hazard material related]</t>
+  </si>
+  <si>
+    <t>[Snow-ice pavement] OR [Holiday]</t>
+  </si>
+  <si>
+    <t>[No tow service arrived] OR [No fireboard arrived]</t>
+  </si>
+  <si>
+    <t>[Vehicle over-turned] OR [SUV involved]</t>
+  </si>
+  <si>
+    <t>[More than 6 respond unit arrived]</t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=19, median=16, SD=12, x=[5, 56], [-30, 30)-&gt; 84%(66/79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.7  6.8  8.1  8.5 25.8 31.2 36.8 38.7 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=45, median=19, SD=107, x=[6, 539], [-30, 30)-&gt; 83%(20/24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.9  9.4 11.0 11.7 28.5 32.4 40.4 88.5 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=33, median=25, SD=22, x=[9, 69], [-30, 30)-&gt; 67%(4/6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8 14.8 17.8 20.8 50.0 54.8 59.6 64.4 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=23, median=17, SD=25, x=[4, 366], [-30, 30)-&gt; 75%(332/444)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3  6.3  7.4  8.7 33.8 38.3 46.4 56.3 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=25, median=17, SD=35, x=[4, 280], [-30, 30)-&gt; 85%(67/79)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.3  7.6  8.4  9.5 26.8 30.0 42.8 63.2 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=10, median=9, SD=5, x=[5, 18], [-30, 30)-&gt; 100%(6/6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.2  5.3  5.3  5.3 13.8 14.9 15.9 17.0 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=44, median=42, SD=22, x=[5, 148], [-60, 60)-&gt; 87%(142/164)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5 20.4 22.4 27.4 53.9 58.3 66.7 73.4 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=45, median=43, SD=23, x=[9, 123], [-60, 60)-&gt; 78%(54/69)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2 18.5 23.6 27.6 60.8 68.6 73.6 80.4 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=49, median=47, SD=48, x=[10, 195], [-60, 60)-&gt; 85%(11/13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 10.6  11.7  14.3  15.9  54.5  57.6  65.9 119.3 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=44, median=42, SD=21, x=[4, 125], [-60, 60)-&gt; 82%(162/198)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0 17.5 23.3 27.0 59.1 63.2 67.4 79.6 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=45, median=43, SD=18, x=[12, 84], [-60, 60)-&gt; 81%(39/48)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4 20.8 24.5 28.4 59.6 67.5 70.1 73.4 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=35, median=36, SD=22, x=[6, 72], [-60, 60)-&gt; 92%(11/12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.1  6.7  8.2 10.2 54.7 57.5 59.0 64.8 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=69, median=68, SD=25, x=[8, 112], [-120, 120)-&gt; 100%(33/33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 25.0  35.1  48.0  48.6  89.1  92.2  94.5 107.7 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=77, median=77, SD=22, x=[26, 120], [-120, 120)-&gt; 96%(26/27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 44.3  57.4  60.1  62.2  93.3  95.4 104.3 117.5 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=71, median=67, SD=23, x=[23, 114], [-120, 120)-&gt; 100%(22/22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35.8  45.9  49.4  55.0  85.2  85.6 107.0 111.5 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=84, median=76, SD=36, x=[27, 201], [-120, 120)-&gt; 95%(18/19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 48.0  58.2  60.9  64.0 100.7 107.2 115.1 123.7 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=77, median=78, SD=7, x=[69, 86], [-120, 120)-&gt; 100%(4/4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">69.5 70.4 71.3 72.3 82.5 83.2 84.0 84.8 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=151, median=141, SD=33, x=[124, 188], [120, 1200)-&gt; 100%(3/3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">126.1 127.8 129.5 131.2 169.3 174.0 178.6 183.3 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=184, median=169, SD=109, x=[49, 488], [120, 1200)-&gt; 75%(9/12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 72.5  93.7 103.4 116.3 201.9 217.6 240.0 353.7 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=170, median=130, SD=109, x=[42, 313], [120, 1200)-&gt; 67%(4/6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 59.0  76.4  93.8 111.2 295.1 299.6 304.0 308.5 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=248, median=248, SD=145, x=[146, 351], [120, 1200)-&gt; 100%(2/2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">156.1 166.3 176.6 186.9 309.9 320.2 330.4 340.7 </t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=178, median=178, SD=NA, x=[178, 178], [120, 1200)-&gt; 100%(1/1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177.6 177.6 177.6 177.6 177.6 177.6 177.6 177.6 </t>
+  </si>
+  <si>
+    <t>&gt;200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">133.7 135.0 136.4 137.7 168.4 169.9 171.3 172.7 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">139.8 166.2 192.5 202.7 290.8 309.6 324.5 339.5 </t>
+  </si>
+  <si>
+    <t>10-30</t>
+  </si>
+  <si>
+    <t>5-30</t>
+  </si>
+  <si>
+    <t>25-55</t>
+  </si>
+  <si>
+    <t>20-60</t>
+  </si>
+  <si>
+    <t>45-90</t>
+  </si>
+  <si>
+    <t>45-95</t>
+  </si>
+  <si>
+    <t>30-115</t>
+  </si>
+  <si>
+    <t>25-65</t>
+  </si>
+  <si>
+    <t>60-95</t>
+  </si>
+  <si>
+    <t>60-100</t>
+  </si>
+  <si>
+    <t>35-130</t>
+  </si>
+  <si>
+    <t>15-55</t>
+  </si>
+  <si>
+    <t>5-65</t>
+  </si>
+  <si>
+    <t>5-80</t>
+  </si>
+  <si>
+    <t>25-60</t>
+  </si>
+  <si>
+    <t>20-65</t>
+  </si>
+  <si>
+    <t>50-90</t>
+  </si>
+  <si>
+    <t>&gt;55</t>
+  </si>
+  <si>
+    <t>60-105</t>
+  </si>
+  <si>
+    <t>60-110</t>
+  </si>
+  <si>
+    <t>40-130</t>
+  </si>
+  <si>
+    <t>5-15</t>
+  </si>
+  <si>
+    <t>5-20</t>
+  </si>
+  <si>
+    <t>10-55</t>
+  </si>
+  <si>
+    <t>70-85</t>
+  </si>
+  <si>
+    <t>50-120</t>
+  </si>
+  <si>
+    <t>130-170</t>
+  </si>
+  <si>
+    <t>120-180</t>
+  </si>
+  <si>
+    <t>100-200</t>
+  </si>
+  <si>
+    <t>40-135</t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=74, median=74, SD=29, x=[45, 102], [-120, 120)-&gt; 100%(3/3)</t>
+  </si>
+  <si>
+    <t>47.7 50.6 53.5 56.5 91.0 93.8 96.7 99.5</t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=118, median=112, SD=68, x=[22, 323], [120, 1200)-&gt; 47%(8/17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32.2  49.3  62.0  68.1 140.7 150.6 168.0 212.3 </t>
+  </si>
+  <si>
+    <t>55-95</t>
+  </si>
+  <si>
+    <t>50-100</t>
+  </si>
+  <si>
+    <t>40-120</t>
+  </si>
+  <si>
+    <t>([Auxiliary lane blocked] AND [More than 4 respond unit arrived]) OR [More than 5 respond unit arrived]</t>
+  </si>
+  <si>
+    <t>[Truck involved] OR [Snow-ice pavement] OR [Pedestrian involved]</t>
+  </si>
+  <si>
+    <t>15-90</t>
+  </si>
+  <si>
+    <t>15-95</t>
+  </si>
+  <si>
+    <t>&lt;200</t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=153, median=153, SD=20, x=[132, 174], [-200, 200)-&gt; 100%(4/4)</t>
+  </si>
+  <si>
+    <t>IDPM-Cluster2// mean=235, median=227, SD=77, x=[113, 354], [200, 2000)-&gt; 86%(6/7)</t>
+  </si>
+  <si>
+    <t>CPI 3+</t>
+  </si>
+  <si>
+    <t>CPD 3+</t>
+  </si>
+  <si>
+    <t>CPI-3+ Lane-1</t>
+  </si>
+  <si>
+    <t>CPI-3+ Lane-2</t>
+  </si>
+  <si>
+    <t>CPI-3+ Lane-3</t>
+  </si>
+  <si>
+    <t>CPI-3+ Lane-4</t>
+  </si>
+  <si>
+    <t>CPD-3+ Lane-1</t>
+  </si>
+  <si>
+    <t>CPD-3+ Lane-2</t>
+  </si>
+  <si>
+    <t>CPD-3+ Lane-3</t>
+  </si>
+  <si>
+    <t>CPD-3+ Lane-4</t>
+  </si>
+  <si>
     <t>([AOC center] AND [More than 2 lane blocked]) OR [Snow-ice pavement]</t>
-  </si>
-  <si>
-    <t>[Shoulder lane blocked] AND [Police first arrived]</t>
-  </si>
-  <si>
-    <t>([More than 7 respond units arrived] AND [Auxiliary lane blocked]) OR [Snow-ice Pavement]</t>
-  </si>
-  <si>
-    <t>[More than 1 shoulder lane blocked] AND ([More than 5 respond unit arrived] OR [Fireboard first arrived])</t>
-  </si>
-  <si>
-    <t>([AOC center] AND [Pickup involved]) OR [More than 1 auxiliary lane blocked]</t>
-  </si>
-  <si>
-    <t>[SOC center] AND [More than 5 resopnd unit arrived]</t>
-  </si>
-  <si>
-    <t>[More than 7 respond unit arrived]</t>
-  </si>
-  <si>
-    <t>([Fireboard arrived] AND [Snow-ice pavement]) OR ([Van involved] AND [Night])</t>
-  </si>
-  <si>
-    <t>CPI 3</t>
-  </si>
-  <si>
-    <t>[More than 3 respond units arrived] AND [Auxiliary lane blocked]</t>
-  </si>
-  <si>
-    <t>[Fireboard FIRST arrived]</t>
-  </si>
-  <si>
-    <t>[Bus involved] OR [Chemical pavement] OR [More than 1 truck involved]</t>
-  </si>
-  <si>
-    <t>[More than 4 respond units arrived]</t>
-  </si>
-  <si>
-    <t>[More than 3 travel lane blocked]</t>
-  </si>
-  <si>
-    <t>[Holiday] AND [Truck involved]</t>
-  </si>
-  <si>
-    <t>[Weekend] AND [Fireboard first arrived]</t>
-  </si>
-  <si>
-    <t>([More than 5 respond units arrived] OR [More than 1 CHART arrived]) AND [More than 1 tow service arrived]</t>
-  </si>
-  <si>
-    <t>[More than 5 lane blocked]</t>
-  </si>
-  <si>
-    <t>[Weekend] AND [More than 4 respond unit arrived]</t>
-  </si>
-  <si>
-    <t>[More than 4 lane blocked] AND [More than 2 CHART arrived]</t>
-  </si>
-  <si>
-    <t>[Wet pavement] AND [More than 4 lane blocked]</t>
-  </si>
-  <si>
-    <t>[No truck involved]</t>
-  </si>
-  <si>
-    <t>[More than 1 shoulder lane blocked]</t>
-  </si>
-  <si>
-    <t>[Winter] AND [Pickup involved]</t>
-  </si>
-  <si>
-    <t>[More than 2 respond unit arrived] AND [Vehicle over-turned]</t>
-  </si>
-  <si>
-    <t>[AOC center] AND [Fireboard arrived]</t>
-  </si>
-  <si>
-    <t>([I-83] AND [Tow service arrived]) OR ([I-395] AND [More than 2 CHART arrived])</t>
-  </si>
-  <si>
-    <t>[Truck involved] AND [More than 1 police arrived]</t>
-  </si>
-  <si>
-    <t>[Tow service arrived] AND [Pickup involved]</t>
-  </si>
-  <si>
-    <t>[More than 1 truck involved] OR [Vehicle jack-knifed] OR [Vehicle lost-load]</t>
-  </si>
-  <si>
-    <t>[Toll-lane blocked] AND [More than 3 respond unit arrived]</t>
-  </si>
-  <si>
-    <t>[More than 2 vehicle involved] AND [More than 6 respond unit arrived</t>
-  </si>
-  <si>
-    <t>[Shoulder lane blocked] AND [More than 6 respond unit arrived]</t>
-  </si>
-  <si>
-    <t>[Auxiliary lane blocked] AND [More than 1 tow service arrived]</t>
-  </si>
-  <si>
-    <t>[More than 3 vehicles involved] AND [More than 4 respond unit arrived]</t>
-  </si>
-  <si>
-    <t>[More than 2 vehicles involved] AND [Truck involved]</t>
-  </si>
-  <si>
-    <t>([More than 1 CHART arrived] AND [Vehicle over-turned]) OR [Truck lost-load]</t>
-  </si>
-  <si>
-    <t>[More than 2 CHART arrived] AND [Truck over-turned]</t>
-  </si>
-  <si>
-    <t>[Auxiliary lane blocked] AND [Vehicle over-turned]</t>
-  </si>
-  <si>
-    <t>([Weekend] OR [More than 1 vehicle involved]) AND [Tow service arrived]</t>
-  </si>
-  <si>
-    <t>[Non-peak hour] AND [Truck involved]</t>
-  </si>
-  <si>
-    <t>([Tow service arrived] AND [Police first arrived]) OR ([Snow-ice pavement] AND [Vehicle over-turned])</t>
-  </si>
-  <si>
-    <t>[More than 3 vehicles involved] AND [More than 4 respond units arrived]</t>
-  </si>
-  <si>
-    <t>[Truck involved] AND [More than 5 respond units arrived]</t>
-  </si>
-  <si>
-    <t>[Weekend] AND [Night] AND [More than 2 vehicles involved] AND [Tow service arrived]</t>
-  </si>
-  <si>
-    <t>[Shoulder lane blocked] AND [Truck involved]</t>
-  </si>
-  <si>
-    <t>([AOC center] AND [Pickup involved]) OR [Chemical wet pavement]</t>
-  </si>
-  <si>
-    <t>[MD 200] AND [Tow service arrived]</t>
-  </si>
-  <si>
-    <t>[More than 1 truck involved] OR [Vehicle jacknifed]</t>
-  </si>
-  <si>
-    <t>CPD 3</t>
-  </si>
-  <si>
-    <t>[More than 2 vehicles involved] AND [More than 1 police arrived]</t>
-  </si>
-  <si>
-    <t>[More than 1 Tow service arrived] OR [Hazard material related]</t>
-  </si>
-  <si>
-    <t>[Snow-ice pavement] OR [Holiday]</t>
-  </si>
-  <si>
-    <t>[No tow service arrived] OR [No fireboard arrived]</t>
-  </si>
-  <si>
-    <t>[Vehicle over-turned] OR [SUV involved]</t>
-  </si>
-  <si>
-    <t>[More than 6 respond unit arrived]</t>
-  </si>
-  <si>
-    <t>CPI-3 Lane-1</t>
-  </si>
-  <si>
-    <t>CPI-3 Lane-2</t>
-  </si>
-  <si>
-    <t>CPI-3 Lane-3</t>
-  </si>
-  <si>
-    <t>CPI-3 Lane-4</t>
-  </si>
-  <si>
-    <t>CPD-3 Lane-1</t>
-  </si>
-  <si>
-    <t>CPD-3 Lane-2</t>
-  </si>
-  <si>
-    <t>CPD-3 Lane-3</t>
-  </si>
-  <si>
-    <t>CPD-3 Lane-4</t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=19, median=16, SD=12, x=[5, 56], [-30, 30)-&gt; 84%(66/79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.7  6.8  8.1  8.5 25.8 31.2 36.8 38.7 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=45, median=19, SD=107, x=[6, 539], [-30, 30)-&gt; 83%(20/24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7.9  9.4 11.0 11.7 28.5 32.4 40.4 88.5 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=33, median=25, SD=22, x=[9, 69], [-30, 30)-&gt; 67%(4/6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8 14.8 17.8 20.8 50.0 54.8 59.6 64.4 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=23, median=17, SD=25, x=[4, 366], [-30, 30)-&gt; 75%(332/444)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.3  6.3  7.4  8.7 33.8 38.3 46.4 56.3 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=25, median=17, SD=35, x=[4, 280], [-30, 30)-&gt; 85%(67/79)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.3  7.6  8.4  9.5 26.8 30.0 42.8 63.2 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=10, median=9, SD=5, x=[5, 18], [-30, 30)-&gt; 100%(6/6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.2  5.3  5.3  5.3 13.8 14.9 15.9 17.0 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=44, median=42, SD=22, x=[5, 148], [-60, 60)-&gt; 87%(142/164)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.5 20.4 22.4 27.4 53.9 58.3 66.7 73.4 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=45, median=43, SD=23, x=[9, 123], [-60, 60)-&gt; 78%(54/69)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.2 18.5 23.6 27.6 60.8 68.6 73.6 80.4 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=49, median=47, SD=48, x=[10, 195], [-60, 60)-&gt; 85%(11/13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 10.6  11.7  14.3  15.9  54.5  57.6  65.9 119.3 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=44, median=42, SD=21, x=[4, 125], [-60, 60)-&gt; 82%(162/198)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.0 17.5 23.3 27.0 59.1 63.2 67.4 79.6 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=45, median=43, SD=18, x=[12, 84], [-60, 60)-&gt; 81%(39/48)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17.4 20.8 24.5 28.4 59.6 67.5 70.1 73.4 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=35, median=36, SD=22, x=[6, 72], [-60, 60)-&gt; 92%(11/12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 6.1  6.7  8.2 10.2 54.7 57.5 59.0 64.8 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=69, median=68, SD=25, x=[8, 112], [-120, 120)-&gt; 100%(33/33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 25.0  35.1  48.0  48.6  89.1  92.2  94.5 107.7 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=77, median=77, SD=22, x=[26, 120], [-120, 120)-&gt; 96%(26/27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 44.3  57.4  60.1  62.2  93.3  95.4 104.3 117.5 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=71, median=67, SD=23, x=[23, 114], [-120, 120)-&gt; 100%(22/22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35.8  45.9  49.4  55.0  85.2  85.6 107.0 111.5 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=84, median=76, SD=36, x=[27, 201], [-120, 120)-&gt; 95%(18/19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 48.0  58.2  60.9  64.0 100.7 107.2 115.1 123.7 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=77, median=78, SD=7, x=[69, 86], [-120, 120)-&gt; 100%(4/4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">69.5 70.4 71.3 72.3 82.5 83.2 84.0 84.8 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=151, median=141, SD=33, x=[124, 188], [120, 1200)-&gt; 100%(3/3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">126.1 127.8 129.5 131.2 169.3 174.0 178.6 183.3 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=184, median=169, SD=109, x=[49, 488], [120, 1200)-&gt; 75%(9/12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 72.5  93.7 103.4 116.3 201.9 217.6 240.0 353.7 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=170, median=130, SD=109, x=[42, 313], [120, 1200)-&gt; 67%(4/6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 59.0  76.4  93.8 111.2 295.1 299.6 304.0 308.5 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=248, median=248, SD=145, x=[146, 351], [120, 1200)-&gt; 100%(2/2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">156.1 166.3 176.6 186.9 309.9 320.2 330.4 340.7 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=178, median=178, SD=NA, x=[178, 178], [120, 1200)-&gt; 100%(1/1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">177.6 177.6 177.6 177.6 177.6 177.6 177.6 177.6 </t>
-  </si>
-  <si>
-    <t>&gt;200</t>
-  </si>
-  <si>
-    <t>IDPM-Cluster1// mean=153, median=153, SD=20, x=[132, 174], [-200, 200)-&gt; 100%(4/4)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">133.7 135.0 136.4 137.7 168.4 169.9 171.3 172.7 </t>
-  </si>
-  <si>
-    <t>IDPM-Cluster1// mean=235, median=227, SD=77, x=[113, 354], [200, 2000)-&gt; 86%(6/7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">139.8 166.2 192.5 202.7 290.8 309.6 324.5 339.5 </t>
-  </si>
-  <si>
-    <t>10-30</t>
-  </si>
-  <si>
-    <t>5-30</t>
-  </si>
-  <si>
-    <t>25-55</t>
-  </si>
-  <si>
-    <t>20-60</t>
-  </si>
-  <si>
-    <t>45-90</t>
-  </si>
-  <si>
-    <t>45-95</t>
-  </si>
-  <si>
-    <t>30-115</t>
-  </si>
-  <si>
-    <t>25-65</t>
-  </si>
-  <si>
-    <t>60-95</t>
-  </si>
-  <si>
-    <t>60-100</t>
-  </si>
-  <si>
-    <t>35-130</t>
-  </si>
-  <si>
-    <t>15-55</t>
-  </si>
-  <si>
-    <t>5-65</t>
-  </si>
-  <si>
-    <t>5-80</t>
-  </si>
-  <si>
-    <t>25-60</t>
-  </si>
-  <si>
-    <t>20-65</t>
-  </si>
-  <si>
-    <t>50-90</t>
-  </si>
-  <si>
-    <t>&gt;55</t>
-  </si>
-  <si>
-    <t>60-105</t>
-  </si>
-  <si>
-    <t>60-110</t>
-  </si>
-  <si>
-    <t>40-130</t>
-  </si>
-  <si>
-    <t>5-15</t>
-  </si>
-  <si>
-    <t>5-20</t>
-  </si>
-  <si>
-    <t>10-55</t>
-  </si>
-  <si>
-    <t>70-85</t>
-  </si>
-  <si>
-    <t>50-120</t>
-  </si>
-  <si>
-    <t>130-170</t>
-  </si>
-  <si>
-    <t>120-180</t>
-  </si>
-  <si>
-    <t>100-200</t>
-  </si>
-  <si>
-    <t>40-135</t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=74, median=74, SD=29, x=[45, 102], [-120, 120)-&gt; 100%(3/3)</t>
-  </si>
-  <si>
-    <t>47.7 50.6 53.5 56.5 91.0 93.8 96.7 99.5</t>
-  </si>
-  <si>
-    <t>IDPM-Cluster2// mean=118, median=112, SD=68, x=[22, 323], [120, 1200)-&gt; 47%(8/17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 32.2  49.3  62.0  68.1 140.7 150.6 168.0 212.3 </t>
-  </si>
-  <si>
-    <t>55-95</t>
-  </si>
-  <si>
-    <t>50-100</t>
-  </si>
-  <si>
-    <t>40-120</t>
-  </si>
-  <si>
-    <t>([Auxiliary lane blocked] AND [More than 4 respond unit arrived]) OR [More than 5 respond unit arrived]</t>
-  </si>
-  <si>
-    <t>[Truck involved] OR [Snow-ice pavement] OR [Pedestrian involved]</t>
-  </si>
-  <si>
-    <t>15-90</t>
-  </si>
-  <si>
-    <t>15-95</t>
   </si>
 </sst>
 </file>
@@ -1170,18 +1173,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1199,6 +1190,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1249,7 +1252,7 @@
         <xdr:cNvPr id="23" name="Group 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D16FB2B1-0E73-6F4F-8599-5E320489DB89}"/>
+              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D16FB2B1-0E73-6F4F-8599-5E320489DB89}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7824,7 +7827,7 @@
           <xdr:cNvPr id="43" name="Google Shape;110;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{A8C34102-EADA-3E40-8630-B60B27181361}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A8C34102-EADA-3E40-8630-B60B27181361}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8512,7 +8515,7 @@
           <xdr:cNvPr id="44" name="Google Shape;113;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{4C7539A5-5A81-C643-94B6-B484327696B8}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4C7539A5-5A81-C643-94B6-B484327696B8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8551,7 +8554,7 @@
           <xdr:cNvPr id="45" name="Google Shape;117;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D18D4D8A-ADE6-474B-A8AD-76FE5E6CF8D8}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D18D4D8A-ADE6-474B-A8AD-76FE5E6CF8D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9227,7 +9230,7 @@
           <xdr:cNvPr id="46" name="Google Shape;120;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" id="{D1731714-842E-4942-AF18-9EA3D39DFBAC}"/>
+                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1731714-842E-4942-AF18-9EA3D39DFBAC}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9532,15 +9535,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="B126" sqref="B126:E129"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="10"/>
     <col min="3" max="3" width="102.5703125" style="10" customWidth="1"/>
-    <col min="4" max="8" width="9.140625" style="10"/>
+    <col min="4" max="5" width="9.140625" style="10"/>
+    <col min="6" max="6" width="15.5703125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="10"/>
     <col min="9" max="9" width="15.7109375" style="10" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="10"/>
     <col min="11" max="11" width="9.140625" style="34"/>
@@ -9560,10 +9565,10 @@
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="40"/>
       <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
@@ -9571,13 +9576,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="26"/>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -9587,11 +9592,11 @@
     </row>
     <row r="4" spans="1:20" ht="16.5" thickBot="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="46"/>
+      <c r="B4" s="42"/>
       <c r="C4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="44"/>
       <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
@@ -9612,11 +9617,11 @@
     </row>
     <row r="5" spans="1:20" ht="16.5" thickTop="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="46"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="44"/>
       <c r="E5" s="33" t="s">
         <v>3</v>
       </c>
@@ -9629,10 +9634,10 @@
         <v>0.6</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="M5"/>
       <c r="N5"/>
@@ -9645,11 +9650,11 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="26"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
@@ -9676,11 +9681,11 @@
     </row>
     <row r="7" spans="1:20" ht="16.5" thickBot="1">
       <c r="A7" s="26"/>
-      <c r="B7" s="46"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="44"/>
       <c r="E7" s="33" t="s">
         <v>3</v>
       </c>
@@ -9694,7 +9699,7 @@
         <v>40</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -9707,11 +9712,11 @@
     </row>
     <row r="8" spans="1:20" ht="16.5" thickTop="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="44"/>
       <c r="E8" s="33" t="s">
         <v>3</v>
       </c>
@@ -9724,10 +9729,10 @@
         <v>0.6</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M8"/>
       <c r="N8"/>
@@ -9740,11 +9745,11 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="26"/>
-      <c r="B9" s="46"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="44"/>
       <c r="E9" s="33" t="s">
         <v>3</v>
       </c>
@@ -9755,7 +9760,7 @@
         <v>0.7</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>35</v>
@@ -9771,11 +9776,11 @@
     </row>
     <row r="10" spans="1:20" ht="16.5" thickBot="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="46"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="15" t="s">
         <v>3</v>
       </c>
@@ -9786,10 +9791,10 @@
         <v>0.8</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -9803,14 +9808,16 @@
     <row r="11" spans="1:20" ht="16.5" thickTop="1">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="40"/>
+      <c r="D11" s="46"/>
       <c r="E11" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
       <c r="H11"/>
       <c r="I11" t="s">
         <v>19</v>
@@ -9819,10 +9826,10 @@
         <v>0.6</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M11"/>
       <c r="N11"/>
@@ -9835,13 +9842,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="26"/>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="47" t="s">
+      <c r="D12" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -9854,7 +9861,7 @@
         <v>0.7</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>36</v>
@@ -9870,11 +9877,11 @@
     </row>
     <row r="13" spans="1:20" ht="16.5" thickBot="1">
       <c r="A13" s="26"/>
-      <c r="B13" s="46"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="44"/>
       <c r="E13" s="15" t="s">
         <v>13</v>
       </c>
@@ -9885,10 +9892,10 @@
         <v>0.8</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -9901,11 +9908,11 @@
     </row>
     <row r="14" spans="1:20" ht="16.5" thickTop="1">
       <c r="A14" s="26"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="44"/>
       <c r="E14" s="15" t="s">
         <v>13</v>
       </c>
@@ -9921,7 +9928,7 @@
         <v>16</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="M14"/>
       <c r="N14"/>
@@ -9934,11 +9941,11 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="26"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="44"/>
       <c r="E15" s="15" t="s">
         <v>13</v>
       </c>
@@ -9965,11 +9972,11 @@
     </row>
     <row r="16" spans="1:20" ht="16.5" thickBot="1">
       <c r="A16" s="26"/>
-      <c r="B16" s="46"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="48"/>
+      <c r="D16" s="44"/>
       <c r="E16" s="15" t="s">
         <v>13</v>
       </c>
@@ -9979,7 +9986,7 @@
       <c r="J16" s="5"/>
       <c r="K16" s="7"/>
       <c r="L16" s="8" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
@@ -9992,11 +9999,11 @@
     </row>
     <row r="17" spans="1:20" ht="16.5" thickTop="1">
       <c r="A17" s="26"/>
-      <c r="B17" s="46"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="15" t="s">
         <v>13</v>
       </c>
@@ -10018,14 +10025,16 @@
     <row r="18" spans="1:20">
       <c r="A18" s="26"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="46"/>
       <c r="E18" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="26"/>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -10042,19 +10051,21 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="26"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -10071,15 +10082,17 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="26"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -10098,25 +10111,29 @@
       <c r="A21" s="26"/>
       <c r="B21" s="49"/>
       <c r="C21" s="16" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="D21" s="50"/>
       <c r="E21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="16.5" thickBot="1">
       <c r="A22" s="26"/>
       <c r="B22" s="29"/>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="42"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="26"/>
@@ -10139,10 +10156,10 @@
       <c r="B25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="12" t="s">
         <v>1</v>
       </c>
@@ -10150,13 +10167,13 @@
     </row>
     <row r="26" spans="1:20" ht="16.5" thickBot="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -10179,11 +10196,11 @@
     </row>
     <row r="27" spans="1:20" ht="16.5" thickTop="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="46"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="48"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="15" t="s">
         <v>3</v>
       </c>
@@ -10196,10 +10213,10 @@
         <v>0.6</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="M27"/>
       <c r="N27"/>
@@ -10212,11 +10229,11 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="26"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="48"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="15" t="s">
         <v>3</v>
       </c>
@@ -10243,11 +10260,11 @@
     </row>
     <row r="29" spans="1:20" ht="16.5" thickBot="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="48"/>
+        <v>230</v>
+      </c>
+      <c r="D29" s="44"/>
       <c r="E29" s="15" t="s">
         <v>3</v>
       </c>
@@ -10261,7 +10278,7 @@
         <v>51</v>
       </c>
       <c r="L29" s="8" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -10276,7 +10293,7 @@
       <c r="A30" s="26"/>
       <c r="B30" s="49"/>
       <c r="C30" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="50"/>
       <c r="E30" s="15" t="s">
@@ -10291,10 +10308,10 @@
         <v>0.6</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="M30"/>
       <c r="N30"/>
@@ -10308,14 +10325,16 @@
     <row r="31" spans="1:20">
       <c r="A31" s="26"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="40"/>
+      <c r="D31" s="46"/>
       <c r="E31" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
       <c r="J31" s="1">
@@ -10338,13 +10357,13 @@
     </row>
     <row r="32" spans="1:20" ht="16.5" thickBot="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="47" t="s">
+      <c r="D32" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -10360,7 +10379,7 @@
         <v>57</v>
       </c>
       <c r="L32" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -10373,11 +10392,11 @@
     </row>
     <row r="33" spans="1:20" ht="16.5" thickTop="1">
       <c r="A33" s="26"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="42"/>
       <c r="C33" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="48"/>
+        <v>77</v>
+      </c>
+      <c r="D33" s="44"/>
       <c r="E33" s="15" t="s">
         <v>13</v>
       </c>
@@ -10390,10 +10409,10 @@
         <v>0.6</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="M33"/>
       <c r="N33"/>
@@ -10406,11 +10425,11 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="26"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="42"/>
       <c r="C34" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="48"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="21" t="s">
         <v>13</v>
       </c>
@@ -10421,7 +10440,7 @@
         <v>0.7</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>36</v>
@@ -10437,11 +10456,11 @@
     </row>
     <row r="35" spans="1:20" ht="16.5" thickBot="1">
       <c r="A35" s="26"/>
-      <c r="B35" s="46"/>
+      <c r="B35" s="42"/>
       <c r="C35" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="48"/>
+        <v>78</v>
+      </c>
+      <c r="D35" s="44"/>
       <c r="E35" s="21" t="s">
         <v>13</v>
       </c>
@@ -10452,10 +10471,10 @@
         <v>0.8</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -10468,11 +10487,11 @@
     </row>
     <row r="36" spans="1:20" ht="16.5" thickTop="1">
       <c r="A36" s="26"/>
-      <c r="B36" s="46"/>
+      <c r="B36" s="42"/>
       <c r="C36" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="48"/>
+        <v>79</v>
+      </c>
+      <c r="D36" s="44"/>
       <c r="E36" s="21" t="s">
         <v>13</v>
       </c>
@@ -10488,7 +10507,7 @@
         <v>16</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="M36"/>
       <c r="N36"/>
@@ -10503,7 +10522,7 @@
       <c r="A37" s="26"/>
       <c r="B37" s="49"/>
       <c r="C37" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D37" s="50"/>
       <c r="E37" s="21" t="s">
@@ -10533,20 +10552,22 @@
     <row r="38" spans="1:20" ht="16.5" thickBot="1">
       <c r="A38" s="26"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="39" t="s">
+      <c r="C38" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="40"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" t="s">
+        <v>22</v>
+      </c>
       <c r="H38"/>
       <c r="I38" s="5"/>
       <c r="J38" s="6"/>
       <c r="K38" s="7"/>
       <c r="L38" s="9" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -10559,19 +10580,21 @@
     </row>
     <row r="39" spans="1:20" ht="16.5" thickTop="1">
       <c r="A39" s="26"/>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" t="s">
+        <v>24</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
       <c r="J39"/>
@@ -10590,13 +10613,15 @@
       <c r="A40" s="26"/>
       <c r="B40" s="49"/>
       <c r="C40" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D40" s="50"/>
       <c r="E40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" t="s">
+        <v>24</v>
+      </c>
       <c r="H40"/>
       <c r="I40"/>
       <c r="J40"/>
@@ -10614,14 +10639,16 @@
     <row r="41" spans="1:20" ht="16.5" thickBot="1">
       <c r="A41" s="26"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="42"/>
+      <c r="D41" s="48"/>
       <c r="E41" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="42" spans="1:20">
       <c r="A42" s="26"/>
@@ -10642,12 +10669,12 @@
     <row r="44" spans="1:20">
       <c r="A44" s="26"/>
       <c r="B44" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="44"/>
+      <c r="D44" s="40"/>
       <c r="E44" s="12" t="s">
         <v>1</v>
       </c>
@@ -10655,13 +10682,13 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="26"/>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="D45" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -10671,11 +10698,11 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="26"/>
-      <c r="B46" s="46"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="48"/>
+        <v>84</v>
+      </c>
+      <c r="D46" s="44"/>
       <c r="E46" s="15" t="s">
         <v>3</v>
       </c>
@@ -10683,11 +10710,11 @@
     </row>
     <row r="47" spans="1:20" ht="16.5" thickBot="1">
       <c r="A47" s="26"/>
-      <c r="B47" s="46"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="48"/>
+        <v>85</v>
+      </c>
+      <c r="D47" s="44"/>
       <c r="E47" s="15" t="s">
         <v>3</v>
       </c>
@@ -10708,18 +10735,18 @@
     </row>
     <row r="48" spans="1:20" ht="16.5" thickTop="1">
       <c r="A48" s="26"/>
-      <c r="B48" s="46"/>
+      <c r="B48" s="42"/>
       <c r="C48" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48" s="48"/>
+        <v>86</v>
+      </c>
+      <c r="D48" s="44"/>
       <c r="E48" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F48" s="26"/>
       <c r="H48"/>
       <c r="I48" t="s">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="J48" s="1">
         <v>0.6</v>
@@ -10728,7 +10755,7 @@
         <v>55</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M48"/>
       <c r="N48"/>
@@ -10743,7 +10770,7 @@
       <c r="A49" s="26"/>
       <c r="B49" s="49"/>
       <c r="C49" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D49" s="50"/>
       <c r="E49" s="15" t="s">
@@ -10756,7 +10783,7 @@
         <v>0.7</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>35</v>
@@ -10773,24 +10800,26 @@
     <row r="50" spans="1:20" ht="16.5" thickBot="1">
       <c r="A50" s="26"/>
       <c r="B50" s="28"/>
-      <c r="C50" s="39" t="s">
+      <c r="C50" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="40"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="26"/>
+      <c r="F50" t="s">
+        <v>222</v>
+      </c>
       <c r="H50"/>
       <c r="I50" s="5"/>
       <c r="J50" s="6">
         <v>0.8</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L50" s="8" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" s="5"/>
@@ -10803,13 +10832,13 @@
     </row>
     <row r="51" spans="1:20" ht="16.5" thickTop="1">
       <c r="A51" s="26"/>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D51" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -10818,16 +10847,16 @@
       <c r="F51" s="26"/>
       <c r="H51"/>
       <c r="I51" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c r="J51" s="1">
         <v>0.6</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="M51"/>
       <c r="N51"/>
@@ -10840,11 +10869,11 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="26"/>
-      <c r="B52" s="46"/>
+      <c r="B52" s="42"/>
       <c r="C52" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D52" s="48"/>
+        <v>89</v>
+      </c>
+      <c r="D52" s="44"/>
       <c r="E52" s="15" t="s">
         <v>13</v>
       </c>
@@ -10871,11 +10900,11 @@
     </row>
     <row r="53" spans="1:20" ht="16.5" thickBot="1">
       <c r="A53" s="26"/>
-      <c r="B53" s="46"/>
+      <c r="B53" s="42"/>
       <c r="C53" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="48"/>
+        <v>90</v>
+      </c>
+      <c r="D53" s="44"/>
       <c r="E53" s="15" t="s">
         <v>13</v>
       </c>
@@ -10886,10 +10915,10 @@
         <v>0.8</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="L53" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -10902,27 +10931,27 @@
     </row>
     <row r="54" spans="1:20" ht="16.5" thickTop="1">
       <c r="A54" s="26"/>
-      <c r="B54" s="46"/>
+      <c r="B54" s="42"/>
       <c r="C54" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="48"/>
+        <v>91</v>
+      </c>
+      <c r="D54" s="44"/>
       <c r="E54" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F54" s="26"/>
       <c r="H54"/>
       <c r="I54" t="s">
-        <v>134</v>
+        <v>224</v>
       </c>
       <c r="J54" s="1">
         <v>0.6</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="M54"/>
       <c r="N54"/>
@@ -10935,11 +10964,11 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
-      <c r="B55" s="46"/>
+      <c r="B55" s="42"/>
       <c r="C55" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="48"/>
+        <v>92</v>
+      </c>
+      <c r="D55" s="44"/>
       <c r="E55" s="15" t="s">
         <v>13</v>
       </c>
@@ -10950,7 +10979,7 @@
         <v>0.7</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L55" s="2" t="s">
         <v>35</v>
@@ -10967,24 +10996,26 @@
     <row r="56" spans="1:20" ht="16.5" thickBot="1">
       <c r="A56" s="26"/>
       <c r="B56" s="28"/>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="40"/>
+      <c r="D56" s="46"/>
       <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="26"/>
+      <c r="F56" t="s">
+        <v>223</v>
+      </c>
       <c r="H56"/>
       <c r="I56" s="5"/>
       <c r="J56" s="6">
         <v>0.8</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
@@ -10997,22 +11028,24 @@
     </row>
     <row r="57" spans="1:20" ht="16.5" thickTop="1">
       <c r="A57" s="26"/>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="47" t="s">
+      <c r="D57" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="26"/>
+      <c r="F57" t="s">
+        <v>225</v>
+      </c>
       <c r="H57"/>
       <c r="I57" t="s">
-        <v>135</v>
+        <v>225</v>
       </c>
       <c r="J57" s="1">
         <v>0.6</v>
@@ -11021,7 +11054,7 @@
         <v>16</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="M57"/>
       <c r="N57"/>
@@ -11034,15 +11067,17 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="26"/>
-      <c r="B58" s="46"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" s="48"/>
+        <v>93</v>
+      </c>
+      <c r="D58" s="44"/>
       <c r="E58" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="26"/>
+      <c r="F58" t="s">
+        <v>225</v>
+      </c>
       <c r="H58"/>
       <c r="I58"/>
       <c r="J58" s="1">
@@ -11065,15 +11100,17 @@
     </row>
     <row r="59" spans="1:20" ht="16.5" thickBot="1">
       <c r="A59" s="26"/>
-      <c r="B59" s="46"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="D59" s="48"/>
+        <v>94</v>
+      </c>
+      <c r="D59" s="44"/>
       <c r="E59" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="26"/>
+      <c r="F59" t="s">
+        <v>225</v>
+      </c>
       <c r="H59"/>
       <c r="I59" s="5"/>
       <c r="J59" s="6">
@@ -11083,7 +11120,7 @@
         <v>13</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -11096,15 +11133,17 @@
     </row>
     <row r="60" spans="1:20" ht="16.5" thickTop="1">
       <c r="A60" s="26"/>
-      <c r="B60" s="46"/>
+      <c r="B60" s="42"/>
       <c r="C60" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D60" s="48"/>
+        <v>128</v>
+      </c>
+      <c r="D60" s="44"/>
       <c r="E60" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="26"/>
+      <c r="F60" t="s">
+        <v>225</v>
+      </c>
       <c r="H60"/>
       <c r="I60"/>
       <c r="J60"/>
@@ -11123,25 +11162,29 @@
       <c r="A61" s="26"/>
       <c r="B61" s="49"/>
       <c r="C61" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="26"/>
+      <c r="F61" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="62" spans="1:20" ht="16.5" thickBot="1">
       <c r="A62" s="26"/>
       <c r="B62" s="29"/>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="42"/>
+      <c r="D62" s="48"/>
       <c r="E62" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="26"/>
+      <c r="F62" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="63" spans="1:20">
       <c r="A63" s="26"/>
@@ -11164,10 +11207,10 @@
       <c r="B65" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="43" t="s">
+      <c r="C65" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="44"/>
+      <c r="D65" s="40"/>
       <c r="E65" s="12" t="s">
         <v>1</v>
       </c>
@@ -11205,7 +11248,7 @@
       <c r="A68" s="26"/>
       <c r="B68" s="51"/>
       <c r="C68" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D68" s="52"/>
       <c r="E68" s="15" t="s">
@@ -11230,7 +11273,7 @@
       <c r="A69" s="26"/>
       <c r="B69" s="51"/>
       <c r="C69" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D69" s="52"/>
       <c r="E69" s="15" t="s">
@@ -11248,7 +11291,7 @@
         <v>33</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M69"/>
       <c r="N69"/>
@@ -11263,7 +11306,7 @@
       <c r="A70" s="26"/>
       <c r="B70" s="51"/>
       <c r="C70" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D70" s="52"/>
       <c r="E70" s="15" t="s">
@@ -11294,7 +11337,7 @@
       <c r="A71" s="26"/>
       <c r="B71" s="51"/>
       <c r="C71" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D71" s="52"/>
       <c r="E71" s="35" t="s">
@@ -11307,10 +11350,10 @@
         <v>0.8</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="L71" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M71" s="5"/>
       <c r="N71" s="5"/>
@@ -11325,7 +11368,7 @@
       <c r="A72" s="26"/>
       <c r="B72" s="51"/>
       <c r="C72" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D72" s="52"/>
       <c r="E72" s="15" t="s">
@@ -11340,10 +11383,10 @@
         <v>0.6</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M72"/>
       <c r="N72"/>
@@ -11358,7 +11401,7 @@
       <c r="A73" s="26"/>
       <c r="B73" s="51"/>
       <c r="C73" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D73" s="52"/>
       <c r="E73" s="15" t="s">
@@ -11371,7 +11414,7 @@
         <v>0.7</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>35</v>
@@ -11389,7 +11432,7 @@
       <c r="A74" s="26"/>
       <c r="B74" s="51"/>
       <c r="C74" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D74" s="52"/>
       <c r="E74" s="15" t="s">
@@ -11402,10 +11445,10 @@
         <v>0.8</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L74" s="8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
@@ -11420,7 +11463,7 @@
       <c r="A75" s="26"/>
       <c r="B75" s="51"/>
       <c r="C75" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D75" s="52"/>
       <c r="E75" s="15" t="s">
@@ -11435,10 +11478,10 @@
         <v>0.6</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M75"/>
       <c r="N75"/>
@@ -11453,7 +11496,7 @@
       <c r="A76" s="26"/>
       <c r="B76" s="51"/>
       <c r="C76" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D76" s="52"/>
       <c r="E76" s="15" t="s">
@@ -11466,7 +11509,7 @@
         <v>0.7</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>36</v>
@@ -11483,24 +11526,26 @@
     <row r="77" spans="1:20" ht="16.5" thickBot="1">
       <c r="A77" s="26"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="39" t="s">
+      <c r="C77" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="40"/>
+      <c r="D77" s="46"/>
       <c r="E77" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F77" s="26"/>
+      <c r="F77" t="s">
+        <v>25</v>
+      </c>
       <c r="H77"/>
       <c r="I77" s="5"/>
       <c r="J77" s="6">
         <v>0.8</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="L77" s="8" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -11517,7 +11562,7 @@
         <v>8</v>
       </c>
       <c r="C78" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D78" s="52" t="s">
         <v>0</v>
@@ -11537,7 +11582,7 @@
         <v>16</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M78"/>
       <c r="N78"/>
@@ -11552,7 +11597,7 @@
       <c r="A79" s="26"/>
       <c r="B79" s="51"/>
       <c r="C79" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D79" s="52"/>
       <c r="E79" s="15" t="s">
@@ -11565,7 +11610,7 @@
         <v>1</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="L79" s="2" t="s">
         <v>36</v>
@@ -11583,7 +11628,7 @@
       <c r="A80" s="26"/>
       <c r="B80" s="51"/>
       <c r="C80" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D80" s="52"/>
       <c r="E80" s="15" t="s">
@@ -11595,7 +11640,7 @@
       <c r="J80" s="6"/>
       <c r="K80" s="7"/>
       <c r="L80" s="8" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
@@ -11610,7 +11655,7 @@
       <c r="A81" s="26"/>
       <c r="B81" s="51"/>
       <c r="C81" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D81" s="52"/>
       <c r="E81" s="15" t="s">
@@ -11635,7 +11680,7 @@
       <c r="A82" s="26"/>
       <c r="B82" s="51"/>
       <c r="C82" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D82" s="52"/>
       <c r="E82" s="15" t="s">
@@ -11647,7 +11692,7 @@
       <c r="A83" s="26"/>
       <c r="B83" s="51"/>
       <c r="C83" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D83" s="52"/>
       <c r="E83" s="15" t="s">
@@ -11659,65 +11704,75 @@
       <c r="A84" s="26"/>
       <c r="B84" s="51"/>
       <c r="C84" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D84" s="52"/>
       <c r="E84" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="26"/>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="85" spans="1:20">
       <c r="A85" s="26"/>
       <c r="B85" s="28"/>
-      <c r="C85" s="39" t="s">
+      <c r="C85" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="40"/>
+      <c r="D85" s="46"/>
       <c r="E85" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F85" s="26"/>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="26"/>
-      <c r="B86" s="45" t="s">
+      <c r="B86" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="D86" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="26"/>
+      <c r="F86" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="87" spans="1:20">
       <c r="A87" s="26"/>
       <c r="B87" s="49"/>
       <c r="C87" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D87" s="50"/>
       <c r="E87" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="26"/>
+      <c r="F87" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="88" spans="1:20" ht="16.5" thickBot="1">
       <c r="A88" s="26"/>
       <c r="B88" s="29"/>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="42"/>
+      <c r="D88" s="48"/>
       <c r="E88" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="26"/>
+      <c r="F88" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="89" spans="1:20">
       <c r="A89" s="26"/>
@@ -11740,10 +11795,10 @@
       <c r="B91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="43" t="s">
+      <c r="C91" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="44"/>
+      <c r="D91" s="40"/>
       <c r="E91" s="12" t="s">
         <v>1</v>
       </c>
@@ -11751,13 +11806,13 @@
     </row>
     <row r="92" spans="1:20" ht="16.5" thickBot="1">
       <c r="A92" s="26"/>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="47" t="s">
+      <c r="D92" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="15" t="s">
@@ -11780,11 +11835,11 @@
     </row>
     <row r="93" spans="1:20" ht="16.5" thickTop="1">
       <c r="A93" s="26"/>
-      <c r="B93" s="46"/>
+      <c r="B93" s="42"/>
       <c r="C93" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D93" s="48"/>
+        <v>113</v>
+      </c>
+      <c r="D93" s="44"/>
       <c r="E93" s="15" t="s">
         <v>3</v>
       </c>
@@ -11797,10 +11852,10 @@
         <v>0.6</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="M93"/>
       <c r="N93"/>
@@ -11813,11 +11868,11 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="26"/>
-      <c r="B94" s="46"/>
+      <c r="B94" s="42"/>
       <c r="C94" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D94" s="48"/>
+        <v>114</v>
+      </c>
+      <c r="D94" s="44"/>
       <c r="E94" s="15" t="s">
         <v>3</v>
       </c>
@@ -11844,11 +11899,11 @@
     </row>
     <row r="95" spans="1:20" ht="16.5" thickBot="1">
       <c r="A95" s="26"/>
-      <c r="B95" s="46"/>
+      <c r="B95" s="42"/>
       <c r="C95" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" s="48"/>
+        <v>115</v>
+      </c>
+      <c r="D95" s="44"/>
       <c r="E95" s="15" t="s">
         <v>3</v>
       </c>
@@ -11862,7 +11917,7 @@
         <v>51</v>
       </c>
       <c r="L95" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -11876,14 +11931,16 @@
     <row r="96" spans="1:20" ht="16.5" thickTop="1">
       <c r="A96" s="26"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="39" t="s">
+      <c r="C96" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="40"/>
+      <c r="D96" s="46"/>
       <c r="E96" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F96" s="26"/>
+      <c r="F96" t="s">
+        <v>29</v>
+      </c>
       <c r="H96"/>
       <c r="I96" t="s">
         <v>30</v>
@@ -11892,10 +11949,10 @@
         <v>0.6</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="M96"/>
       <c r="N96"/>
@@ -11908,13 +11965,13 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="26"/>
-      <c r="B97" s="45" t="s">
+      <c r="B97" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="47" t="s">
+      <c r="D97" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="15" t="s">
@@ -11943,11 +12000,11 @@
     </row>
     <row r="98" spans="1:20" ht="16.5" thickBot="1">
       <c r="A98" s="26"/>
-      <c r="B98" s="46"/>
+      <c r="B98" s="42"/>
       <c r="C98" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" s="48"/>
+        <v>116</v>
+      </c>
+      <c r="D98" s="44"/>
       <c r="E98" s="15" t="s">
         <v>13</v>
       </c>
@@ -11961,7 +12018,7 @@
         <v>57</v>
       </c>
       <c r="L98" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
@@ -11974,11 +12031,11 @@
     </row>
     <row r="99" spans="1:20" ht="16.5" thickTop="1">
       <c r="A99" s="26"/>
-      <c r="B99" s="46"/>
+      <c r="B99" s="42"/>
       <c r="C99" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" s="48"/>
+        <v>117</v>
+      </c>
+      <c r="D99" s="44"/>
       <c r="E99" s="15" t="s">
         <v>13</v>
       </c>
@@ -11991,10 +12048,10 @@
         <v>0.6</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="M99"/>
       <c r="N99"/>
@@ -12007,11 +12064,11 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="26"/>
-      <c r="B100" s="46"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="D100" s="48"/>
+        <v>118</v>
+      </c>
+      <c r="D100" s="44"/>
       <c r="E100" s="15" t="s">
         <v>13</v>
       </c>
@@ -12022,7 +12079,7 @@
         <v>0.7</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="L100" s="2" t="s">
         <v>36</v>
@@ -12038,11 +12095,11 @@
     </row>
     <row r="101" spans="1:20" ht="16.5" thickBot="1">
       <c r="A101" s="26"/>
-      <c r="B101" s="46"/>
+      <c r="B101" s="42"/>
       <c r="C101" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" s="48"/>
+        <v>119</v>
+      </c>
+      <c r="D101" s="44"/>
       <c r="E101" s="15" t="s">
         <v>13</v>
       </c>
@@ -12053,10 +12110,10 @@
         <v>0.8</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="L101" s="8" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
@@ -12069,11 +12126,11 @@
     </row>
     <row r="102" spans="1:20" ht="16.5" thickTop="1">
       <c r="A102" s="26"/>
-      <c r="B102" s="46"/>
+      <c r="B102" s="42"/>
       <c r="C102" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" s="48"/>
+        <v>120</v>
+      </c>
+      <c r="D102" s="44"/>
       <c r="E102" s="15" t="s">
         <v>13</v>
       </c>
@@ -12089,7 +12146,7 @@
         <v>16</v>
       </c>
       <c r="L102" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M102"/>
       <c r="N102"/>
@@ -12102,11 +12159,11 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="26"/>
-      <c r="B103" s="46"/>
+      <c r="B103" s="42"/>
       <c r="C103" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D103" s="48"/>
+        <v>121</v>
+      </c>
+      <c r="D103" s="44"/>
       <c r="E103" s="21" t="s">
         <v>13</v>
       </c>
@@ -12134,20 +12191,22 @@
     <row r="104" spans="1:20" ht="16.5" thickBot="1">
       <c r="A104" s="26"/>
       <c r="B104" s="28"/>
-      <c r="C104" s="39" t="s">
+      <c r="C104" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="40"/>
+      <c r="D104" s="46"/>
       <c r="E104" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F104" s="26"/>
+      <c r="F104" t="s">
+        <v>30</v>
+      </c>
       <c r="H104"/>
       <c r="I104" s="5"/>
       <c r="J104" s="6"/>
       <c r="K104" s="7"/>
       <c r="L104" s="8" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -12160,19 +12219,21 @@
     </row>
     <row r="105" spans="1:20" ht="16.5" thickTop="1">
       <c r="A105" s="26"/>
-      <c r="B105" s="45" t="s">
+      <c r="B105" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D105" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D105" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E105" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="26"/>
+      <c r="F105" t="s">
+        <v>32</v>
+      </c>
       <c r="H105"/>
       <c r="I105"/>
       <c r="J105" s="1"/>
@@ -12191,25 +12252,29 @@
       <c r="A106" s="26"/>
       <c r="B106" s="49"/>
       <c r="C106" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D106" s="50"/>
       <c r="E106" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="F106" s="26"/>
+      <c r="F106" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="107" spans="1:20" ht="16.5" thickBot="1">
       <c r="A107" s="26"/>
       <c r="B107" s="29"/>
-      <c r="C107" s="41" t="s">
+      <c r="C107" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="42"/>
+      <c r="D107" s="48"/>
       <c r="E107" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="26"/>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="108" spans="1:20">
       <c r="A108" s="26"/>
@@ -12243,28 +12308,28 @@
     <row r="110" spans="1:20" ht="16.5" thickTop="1">
       <c r="A110" s="26"/>
       <c r="B110" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C110" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="44"/>
+      <c r="D110" s="40"/>
       <c r="E110" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F110" s="26"/>
       <c r="H110"/>
       <c r="I110" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="J110" s="1">
         <v>0.6</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="M110"/>
       <c r="N110"/>
@@ -12277,13 +12342,13 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="26"/>
-      <c r="B111" s="45" t="s">
+      <c r="B111" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E111" s="15" t="s">
@@ -12296,7 +12361,7 @@
         <v>0.7</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="L111" s="2" t="s">
         <v>35</v>
@@ -12312,11 +12377,11 @@
     </row>
     <row r="112" spans="1:20" ht="16.5" thickBot="1">
       <c r="A112" s="26"/>
-      <c r="B112" s="46"/>
+      <c r="B112" s="42"/>
       <c r="C112" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D112" s="48"/>
+        <v>123</v>
+      </c>
+      <c r="D112" s="44"/>
       <c r="E112" s="15" t="s">
         <v>3</v>
       </c>
@@ -12330,7 +12395,7 @@
         <v>33</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -12343,27 +12408,27 @@
     </row>
     <row r="113" spans="1:20" ht="16.5" thickTop="1">
       <c r="A113" s="26"/>
-      <c r="B113" s="46"/>
+      <c r="B113" s="42"/>
       <c r="C113" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="48"/>
+      <c r="D113" s="44"/>
       <c r="E113" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F113" s="26"/>
       <c r="H113"/>
       <c r="I113" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="J113" s="1">
         <v>0.6</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="M113"/>
       <c r="N113"/>
@@ -12377,14 +12442,16 @@
     <row r="114" spans="1:20">
       <c r="A114" s="26"/>
       <c r="B114" s="28"/>
-      <c r="C114" s="39" t="s">
+      <c r="C114" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="40"/>
+      <c r="D114" s="46"/>
       <c r="E114" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F114" s="26"/>
+      <c r="F114" t="s">
+        <v>226</v>
+      </c>
       <c r="H114"/>
       <c r="I114"/>
       <c r="J114" s="1">
@@ -12407,13 +12474,13 @@
     </row>
     <row r="115" spans="1:20" ht="16.5" thickBot="1">
       <c r="A115" s="26"/>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D115" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D115" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E115" s="15" t="s">
@@ -12429,7 +12496,7 @@
         <v>56</v>
       </c>
       <c r="L115" s="8" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -12442,27 +12509,27 @@
     </row>
     <row r="116" spans="1:20" ht="16.5" thickTop="1">
       <c r="A116" s="26"/>
-      <c r="B116" s="46"/>
+      <c r="B116" s="42"/>
       <c r="C116" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D116" s="48"/>
+        <v>125</v>
+      </c>
+      <c r="D116" s="44"/>
       <c r="E116" s="15" t="s">
         <v>13</v>
       </c>
       <c r="F116" s="26"/>
       <c r="H116"/>
       <c r="I116" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="J116" s="1">
         <v>0.6</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="L116" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M116"/>
       <c r="N116"/>
@@ -12475,11 +12542,11 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="26"/>
-      <c r="B117" s="46"/>
+      <c r="B117" s="42"/>
       <c r="C117" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="D117" s="48"/>
+        <v>126</v>
+      </c>
+      <c r="D117" s="44"/>
       <c r="E117" s="15" t="s">
         <v>13</v>
       </c>
@@ -12490,7 +12557,7 @@
         <v>0.7</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>35</v>
@@ -12506,11 +12573,11 @@
     </row>
     <row r="118" spans="1:20" ht="16.5" thickBot="1">
       <c r="A118" s="26"/>
-      <c r="B118" s="46"/>
+      <c r="B118" s="42"/>
       <c r="C118" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D118" s="48"/>
+        <v>127</v>
+      </c>
+      <c r="D118" s="44"/>
       <c r="E118" s="21" t="s">
         <v>13</v>
       </c>
@@ -12521,10 +12588,10 @@
         <v>0.8</v>
       </c>
       <c r="K118" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="L118" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
@@ -12538,17 +12605,19 @@
     <row r="119" spans="1:20" ht="16.5" thickTop="1">
       <c r="A119" s="26"/>
       <c r="B119" s="28"/>
-      <c r="C119" s="39" t="s">
+      <c r="C119" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="40"/>
+      <c r="D119" s="46"/>
       <c r="E119" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F119" s="26"/>
+      <c r="F119" t="s">
+        <v>227</v>
+      </c>
       <c r="H119"/>
       <c r="I119" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="J119" s="1">
         <v>0.7</v>
@@ -12557,7 +12626,7 @@
         <v>16</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="M119"/>
       <c r="N119"/>
@@ -12574,7 +12643,7 @@
         <v>8</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D120" s="25" t="s">
         <v>0</v>
@@ -12582,7 +12651,9 @@
       <c r="E120" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="F120" s="26"/>
+      <c r="F120" t="s">
+        <v>229</v>
+      </c>
       <c r="H120"/>
       <c r="I120"/>
       <c r="J120" s="1">
@@ -12606,20 +12677,22 @@
     <row r="121" spans="1:20" ht="16.5" thickBot="1">
       <c r="A121" s="26"/>
       <c r="B121" s="29"/>
-      <c r="C121" s="41" t="s">
+      <c r="C121" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="42"/>
+      <c r="D121" s="48"/>
       <c r="E121" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="26"/>
+      <c r="F121" t="s">
+        <v>228</v>
+      </c>
       <c r="H121"/>
       <c r="I121" s="5"/>
       <c r="J121" s="6"/>
       <c r="K121" s="7"/>
       <c r="L121" s="8" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
@@ -12681,10 +12754,10 @@
       <c r="B126" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="43" t="s">
+      <c r="C126" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="44"/>
+      <c r="D126" s="40"/>
       <c r="E126" s="19" t="s">
         <v>1</v>
       </c>
@@ -12697,10 +12770,10 @@
         <v>0.6</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="M126"/>
       <c r="N126"/>
@@ -12713,26 +12786,28 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="26"/>
-      <c r="B127" s="45" t="s">
+      <c r="B127" s="41" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D127" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D127" s="43" t="s">
         <v>0</v>
       </c>
       <c r="E127" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="F127" s="26"/>
+        <v>173</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
       <c r="H127"/>
       <c r="I127"/>
       <c r="J127" s="1">
         <v>0.7</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L127" s="2" t="s">
         <v>36</v>
@@ -12749,11 +12824,14 @@
     <row r="128" spans="1:20" ht="16.5" thickBot="1">
       <c r="B128" s="49"/>
       <c r="C128" s="16" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="D128" s="50"/>
       <c r="E128" s="37" t="s">
-        <v>184</v>
+        <v>173</v>
+      </c>
+      <c r="F128" t="s">
+        <v>39</v>
       </c>
       <c r="H128"/>
       <c r="I128" s="5"/>
@@ -12761,10 +12839,10 @@
         <v>0.8</v>
       </c>
       <c r="K128" s="7" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="L128" s="8" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
@@ -12782,7 +12860,10 @@
       </c>
       <c r="D129" s="23"/>
       <c r="E129" s="38" t="s">
-        <v>184</v>
+        <v>217</v>
+      </c>
+      <c r="F129" t="s">
+        <v>38</v>
       </c>
       <c r="H129"/>
       <c r="I129" t="s">
@@ -12792,10 +12873,10 @@
         <v>0.7</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="M129"/>
       <c r="N129"/>
@@ -12833,7 +12914,7 @@
       <c r="J131" s="5"/>
       <c r="K131" s="7"/>
       <c r="L131" s="8" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
@@ -12861,38 +12942,19 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D12:D17"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B66:B76"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="D78:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="B127:B128"/>
@@ -12909,19 +12971,38 @@
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="D105:D106"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="D115:D118"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="D78:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="D92:D95"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D12:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Rules for IDPM Cluster 2.xlsx
+++ b/Rules for IDPM Cluster 2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yhuang27\Desktop\IDPM\Cluster 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhtra\Documents\GitHub\Incident-Prediction-Program\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E67E4F-1976-4E54-87AC-CE3F5CF62445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8145"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="14" r:id="rId1"/>
@@ -20,14 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -734,7 +727,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1173,6 +1166,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1190,18 +1195,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1252,7 +1245,7 @@
         <xdr:cNvPr id="23" name="Group 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D16FB2B1-0E73-6F4F-8599-5E320489DB89}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1260,15 +1253,21 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1068916" y="719668"/>
-          <a:ext cx="8482760" cy="6021915"/>
+          <a:off x="1083733" y="706968"/>
+          <a:ext cx="8736760" cy="5886448"/>
           <a:chOff x="339529" y="637912"/>
           <a:chExt cx="8175821" cy="5804019"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Google Shape;99;p2"/>
+          <xdr:cNvPr id="24" name="Google Shape;99;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -1852,7 +1851,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Google Shape;100;p2"/>
+          <xdr:cNvPr id="25" name="Google Shape;100;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2411,7 +2416,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="26" name="Google Shape;101;p2"/>
+          <xdr:cNvPr id="26" name="Google Shape;101;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
             <a:stCxn id="31" idx="3"/>
@@ -2444,7 +2455,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="27" name="Google Shape;102;p2"/>
+          <xdr:cNvPr id="27" name="Google Shape;102;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
             <a:stCxn id="31" idx="3"/>
@@ -2477,7 +2494,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="28" name="Google Shape;103;p2"/>
+          <xdr:cNvPr id="28" name="Google Shape;103;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="24" idx="3"/>
             <a:endCxn id="25" idx="1"/>
@@ -2509,7 +2532,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="29" name="Google Shape;104;p2"/>
+          <xdr:cNvPr id="29" name="Google Shape;104;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
             <a:stCxn id="24" idx="3"/>
@@ -2542,7 +2571,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="30" name="Google Shape;106;p2"/>
+          <xdr:cNvPr id="30" name="Google Shape;106;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
             <a:stCxn id="31" idx="3"/>
@@ -2575,7 +2610,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Google Shape;105;p2"/>
+          <xdr:cNvPr id="31" name="Google Shape;105;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3180,7 +3221,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Google Shape;107;p2"/>
+          <xdr:cNvPr id="32" name="Google Shape;107;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -3780,7 +3827,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="33" name="Google Shape;108;p2"/>
+          <xdr:cNvPr id="33" name="Google Shape;108;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4388,7 +4441,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="Google Shape;109;p2"/>
+          <xdr:cNvPr id="34" name="Google Shape;109;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -4984,7 +5043,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="Google Shape;110;p2"/>
+          <xdr:cNvPr id="35" name="Google Shape;110;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -5678,7 +5743,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="36" name="Google Shape;111;p2"/>
+          <xdr:cNvPr id="36" name="Google Shape;111;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -6368,7 +6439,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="37" name="Google Shape;113;p2"/>
+          <xdr:cNvPr id="37" name="Google Shape;113;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000025000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="33" idx="3"/>
             <a:endCxn id="35" idx="1"/>
@@ -6400,7 +6477,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="38" name="Google Shape;115;p2"/>
+          <xdr:cNvPr id="38" name="Google Shape;115;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="33" idx="3"/>
             <a:endCxn id="36" idx="1"/>
@@ -6432,7 +6515,13 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="Google Shape;116;p2"/>
+          <xdr:cNvPr id="39" name="Google Shape;116;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7102,7 +7191,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="Google Shape;117;p2"/>
+          <xdr:cNvPr id="40" name="Google Shape;117;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -7760,7 +7855,13 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="41" name="Google Shape;119;p2"/>
+          <xdr:cNvPr id="41" name="Google Shape;119;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000029000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="34" idx="3"/>
             <a:endCxn id="39" idx="1"/>
@@ -7792,7 +7893,13 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="42" name="Google Shape;120;p2"/>
+          <xdr:cNvPr id="42" name="Google Shape;120;p2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:stCxn id="34" idx="3"/>
             <a:endCxn id="40" idx="1"/>
@@ -7827,7 +7934,7 @@
           <xdr:cNvPr id="43" name="Google Shape;110;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{A8C34102-EADA-3E40-8630-B60B27181361}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8515,7 +8622,7 @@
           <xdr:cNvPr id="44" name="Google Shape;113;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{4C7539A5-5A81-C643-94B6-B484327696B8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -8554,7 +8661,7 @@
           <xdr:cNvPr id="45" name="Google Shape;117;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D18D4D8A-ADE6-474B-A8AD-76FE5E6CF8D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9230,7 +9337,7 @@
           <xdr:cNvPr id="46" name="Google Shape;120;p2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" id="{D1731714-842E-4942-AF18-9EA3D39DFBAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -9532,27 +9639,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="B108" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="10"/>
-    <col min="3" max="3" width="102.5703125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="10"/>
-    <col min="6" max="6" width="15.5703125" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="10"/>
-    <col min="9" max="9" width="15.7109375" style="10" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="10"/>
-    <col min="11" max="11" width="9.140625" style="34"/>
-    <col min="12" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="2" width="9.109375" style="10"/>
+    <col min="3" max="3" width="102.5546875" style="10" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" style="10"/>
+    <col min="6" max="6" width="15.5546875" style="10" customWidth="1"/>
+    <col min="7" max="8" width="9.109375" style="10"/>
+    <col min="9" max="9" width="15.6640625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="10"/>
+    <col min="11" max="11" width="9.109375" style="34"/>
+    <col min="12" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" thickBot="1">
+    <row r="1" spans="1:20" ht="16.2" thickBot="1">
       <c r="A1" s="26"/>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -9565,10 +9672,10 @@
       <c r="B2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="40"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="12" t="s">
         <v>1</v>
       </c>
@@ -9576,13 +9683,13 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="26"/>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="33" t="s">
@@ -9590,13 +9697,13 @@
       </c>
       <c r="F3" s="26"/>
     </row>
-    <row r="4" spans="1:20" ht="16.5" thickBot="1">
+    <row r="4" spans="1:20" ht="16.2" thickBot="1">
       <c r="A4" s="26"/>
-      <c r="B4" s="42"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="44"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="33" t="s">
         <v>3</v>
       </c>
@@ -9615,13 +9722,13 @@
       <c r="S4" s="5"/>
       <c r="T4"/>
     </row>
-    <row r="5" spans="1:20" ht="16.5" thickTop="1">
+    <row r="5" spans="1:20" ht="16.2" thickTop="1">
       <c r="A5" s="26"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="44"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="33" t="s">
         <v>3</v>
       </c>
@@ -9650,11 +9757,11 @@
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="26"/>
-      <c r="B6" s="42"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="44"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="33" t="s">
         <v>3</v>
       </c>
@@ -9679,13 +9786,13 @@
       <c r="S6"/>
       <c r="T6"/>
     </row>
-    <row r="7" spans="1:20" ht="16.5" thickBot="1">
+    <row r="7" spans="1:20" ht="16.2" thickBot="1">
       <c r="A7" s="26"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="44"/>
+      <c r="D7" s="48"/>
       <c r="E7" s="33" t="s">
         <v>3</v>
       </c>
@@ -9710,13 +9817,13 @@
       <c r="S7" s="5"/>
       <c r="T7"/>
     </row>
-    <row r="8" spans="1:20" ht="16.5" thickTop="1">
+    <row r="8" spans="1:20" ht="16.2" thickTop="1">
       <c r="A8" s="26"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="44"/>
+      <c r="D8" s="48"/>
       <c r="E8" s="33" t="s">
         <v>3</v>
       </c>
@@ -9745,11 +9852,11 @@
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="26"/>
-      <c r="B9" s="42"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="44"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="33" t="s">
         <v>3</v>
       </c>
@@ -9774,13 +9881,13 @@
       <c r="S9"/>
       <c r="T9"/>
     </row>
-    <row r="10" spans="1:20" ht="16.5" thickBot="1">
+    <row r="10" spans="1:20" ht="16.2" thickBot="1">
       <c r="A10" s="26"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="44"/>
+      <c r="D10" s="48"/>
       <c r="E10" s="15" t="s">
         <v>3</v>
       </c>
@@ -9805,13 +9912,13 @@
       <c r="S10" s="5"/>
       <c r="T10"/>
     </row>
-    <row r="11" spans="1:20" ht="16.5" thickTop="1">
+    <row r="11" spans="1:20" ht="16.2" thickTop="1">
       <c r="A11" s="26"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="46"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="27" t="s">
         <v>7</v>
       </c>
@@ -9842,13 +9949,13 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="26"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="43" t="s">
+      <c r="D12" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E12" s="15" t="s">
@@ -9875,13 +9982,13 @@
       <c r="S12"/>
       <c r="T12"/>
     </row>
-    <row r="13" spans="1:20" ht="16.5" thickBot="1">
+    <row r="13" spans="1:20" ht="16.2" thickBot="1">
       <c r="A13" s="26"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="44"/>
+      <c r="D13" s="48"/>
       <c r="E13" s="15" t="s">
         <v>13</v>
       </c>
@@ -9906,13 +10013,13 @@
       <c r="S13" s="5"/>
       <c r="T13"/>
     </row>
-    <row r="14" spans="1:20" ht="16.5" thickTop="1">
+    <row r="14" spans="1:20" ht="16.2" thickTop="1">
       <c r="A14" s="26"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="44"/>
+      <c r="D14" s="48"/>
       <c r="E14" s="15" t="s">
         <v>13</v>
       </c>
@@ -9941,11 +10048,11 @@
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="26"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="44"/>
+      <c r="D15" s="48"/>
       <c r="E15" s="15" t="s">
         <v>13</v>
       </c>
@@ -9970,13 +10077,13 @@
       <c r="S15"/>
       <c r="T15"/>
     </row>
-    <row r="16" spans="1:20" ht="16.5" thickBot="1">
+    <row r="16" spans="1:20" ht="16.2" thickBot="1">
       <c r="A16" s="26"/>
-      <c r="B16" s="42"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="44"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="15" t="s">
         <v>13</v>
       </c>
@@ -9997,13 +10104,13 @@
       <c r="S16" s="5"/>
       <c r="T16"/>
     </row>
-    <row r="17" spans="1:20" ht="16.5" thickTop="1">
+    <row r="17" spans="1:20" ht="16.2" thickTop="1">
       <c r="A17" s="26"/>
-      <c r="B17" s="42"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="44"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="15" t="s">
         <v>13</v>
       </c>
@@ -10025,10 +10132,10 @@
     <row r="18" spans="1:20">
       <c r="A18" s="26"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="46"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="14" t="s">
         <v>9</v>
       </c>
@@ -10051,13 +10158,13 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="26"/>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="43" t="s">
+      <c r="D19" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E19" s="15" t="s">
@@ -10082,11 +10189,11 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="26"/>
-      <c r="B20" s="42"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="44"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="15" t="s">
         <v>74</v>
       </c>
@@ -10121,13 +10228,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="16.5" thickBot="1">
+    <row r="22" spans="1:20" ht="16.2" thickBot="1">
       <c r="A22" s="26"/>
       <c r="B22" s="29"/>
-      <c r="C22" s="47" t="s">
+      <c r="C22" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="42"/>
       <c r="E22" s="18" t="s">
         <v>10</v>
       </c>
@@ -10143,7 +10250,7 @@
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
     </row>
-    <row r="24" spans="1:20" ht="16.5" thickBot="1">
+    <row r="24" spans="1:20" ht="16.2" thickBot="1">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="26"/>
@@ -10156,24 +10263,24 @@
       <c r="B25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="40"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F25" s="26"/>
     </row>
-    <row r="26" spans="1:20" ht="16.5" thickBot="1">
+    <row r="26" spans="1:20" ht="16.2" thickBot="1">
       <c r="A26" s="26"/>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D26" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E26" s="15" t="s">
@@ -10194,13 +10301,13 @@
       <c r="S26" s="5"/>
       <c r="T26"/>
     </row>
-    <row r="27" spans="1:20" ht="16.5" thickTop="1">
+    <row r="27" spans="1:20" ht="16.2" thickTop="1">
       <c r="A27" s="26"/>
-      <c r="B27" s="42"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="44"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="15" t="s">
         <v>3</v>
       </c>
@@ -10229,11 +10336,11 @@
     </row>
     <row r="28" spans="1:20">
       <c r="A28" s="26"/>
-      <c r="B28" s="42"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="D28" s="44"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="15" t="s">
         <v>3</v>
       </c>
@@ -10258,13 +10365,13 @@
       <c r="S28"/>
       <c r="T28"/>
     </row>
-    <row r="29" spans="1:20" ht="16.5" thickBot="1">
+    <row r="29" spans="1:20" ht="16.2" thickBot="1">
       <c r="A29" s="26"/>
-      <c r="B29" s="42"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D29" s="44"/>
+      <c r="D29" s="48"/>
       <c r="E29" s="15" t="s">
         <v>3</v>
       </c>
@@ -10289,7 +10396,7 @@
       <c r="S29" s="5"/>
       <c r="T29"/>
     </row>
-    <row r="30" spans="1:20" ht="16.5" thickTop="1">
+    <row r="30" spans="1:20" ht="16.2" thickTop="1">
       <c r="A30" s="26"/>
       <c r="B30" s="49"/>
       <c r="C30" s="16" t="s">
@@ -10325,10 +10432,10 @@
     <row r="31" spans="1:20">
       <c r="A31" s="26"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="14" t="s">
         <v>6</v>
       </c>
@@ -10355,15 +10462,15 @@
       <c r="S31"/>
       <c r="T31"/>
     </row>
-    <row r="32" spans="1:20" ht="16.5" thickBot="1">
+    <row r="32" spans="1:20" ht="16.2" thickBot="1">
       <c r="A32" s="26"/>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E32" s="15" t="s">
@@ -10390,13 +10497,13 @@
       <c r="S32" s="5"/>
       <c r="T32"/>
     </row>
-    <row r="33" spans="1:20" ht="16.5" thickTop="1">
+    <row r="33" spans="1:20" ht="16.2" thickTop="1">
       <c r="A33" s="26"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="44"/>
+      <c r="D33" s="48"/>
       <c r="E33" s="15" t="s">
         <v>13</v>
       </c>
@@ -10425,11 +10532,11 @@
     </row>
     <row r="34" spans="1:20">
       <c r="A34" s="26"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="44"/>
+      <c r="D34" s="48"/>
       <c r="E34" s="21" t="s">
         <v>13</v>
       </c>
@@ -10454,13 +10561,13 @@
       <c r="S34"/>
       <c r="T34"/>
     </row>
-    <row r="35" spans="1:20" ht="16.5" thickBot="1">
+    <row r="35" spans="1:20" ht="16.2" thickBot="1">
       <c r="A35" s="26"/>
-      <c r="B35" s="42"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="44"/>
+      <c r="D35" s="48"/>
       <c r="E35" s="21" t="s">
         <v>13</v>
       </c>
@@ -10485,13 +10592,13 @@
       <c r="S35" s="5"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="1:20" ht="16.5" thickTop="1">
+    <row r="36" spans="1:20" ht="16.2" thickTop="1">
       <c r="A36" s="26"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="44"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="21" t="s">
         <v>13</v>
       </c>
@@ -10549,13 +10656,13 @@
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" thickBot="1">
+    <row r="38" spans="1:20" ht="16.2" thickBot="1">
       <c r="A38" s="26"/>
       <c r="B38" s="28"/>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="46"/>
+      <c r="D38" s="40"/>
       <c r="E38" s="14" t="s">
         <v>12</v>
       </c>
@@ -10578,15 +10685,15 @@
       <c r="S38" s="5"/>
       <c r="T38"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" thickTop="1">
+    <row r="39" spans="1:20" ht="16.2" thickTop="1">
       <c r="A39" s="26"/>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="43" t="s">
+      <c r="D39" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E39" s="14" t="s">
@@ -10636,13 +10743,13 @@
       <c r="S40"/>
       <c r="T40"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" thickBot="1">
+    <row r="41" spans="1:20" ht="16.2" thickBot="1">
       <c r="A41" s="26"/>
       <c r="B41" s="29"/>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="48"/>
+      <c r="D41" s="42"/>
       <c r="E41" s="18" t="s">
         <v>10</v>
       </c>
@@ -10658,7 +10765,7 @@
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" thickBot="1">
+    <row r="43" spans="1:20" ht="16.2" thickBot="1">
       <c r="A43" s="26"/>
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
@@ -10671,10 +10778,10 @@
       <c r="B44" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="40"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="12" t="s">
         <v>1</v>
       </c>
@@ -10682,13 +10789,13 @@
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="26"/>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D45" s="43" t="s">
+      <c r="D45" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E45" s="15" t="s">
@@ -10698,23 +10805,23 @@
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="26"/>
-      <c r="B46" s="42"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D46" s="44"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="15" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="26"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" thickBot="1">
+    <row r="47" spans="1:20" ht="16.2" thickBot="1">
       <c r="A47" s="26"/>
-      <c r="B47" s="42"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="44"/>
+      <c r="D47" s="48"/>
       <c r="E47" s="15" t="s">
         <v>3</v>
       </c>
@@ -10733,13 +10840,13 @@
       <c r="S47" s="5"/>
       <c r="T47"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" thickTop="1">
+    <row r="48" spans="1:20" ht="16.2" thickTop="1">
       <c r="A48" s="26"/>
-      <c r="B48" s="42"/>
+      <c r="B48" s="46"/>
       <c r="C48" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="15" t="s">
         <v>3</v>
       </c>
@@ -10797,13 +10904,13 @@
       <c r="S49"/>
       <c r="T49"/>
     </row>
-    <row r="50" spans="1:20" ht="16.5" thickBot="1">
+    <row r="50" spans="1:20" ht="16.2" thickBot="1">
       <c r="A50" s="26"/>
       <c r="B50" s="28"/>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="46"/>
+      <c r="D50" s="40"/>
       <c r="E50" s="14" t="s">
         <v>6</v>
       </c>
@@ -10830,15 +10937,15 @@
       <c r="S50" s="5"/>
       <c r="T50"/>
     </row>
-    <row r="51" spans="1:20" ht="16.5" thickTop="1">
+    <row r="51" spans="1:20" ht="16.2" thickTop="1">
       <c r="A51" s="26"/>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E51" s="15" t="s">
@@ -10869,11 +10976,11 @@
     </row>
     <row r="52" spans="1:20">
       <c r="A52" s="26"/>
-      <c r="B52" s="42"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="44"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="15" t="s">
         <v>13</v>
       </c>
@@ -10898,13 +11005,13 @@
       <c r="S52"/>
       <c r="T52"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5" thickBot="1">
+    <row r="53" spans="1:20" ht="16.2" thickBot="1">
       <c r="A53" s="26"/>
-      <c r="B53" s="42"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="44"/>
+      <c r="D53" s="48"/>
       <c r="E53" s="15" t="s">
         <v>13</v>
       </c>
@@ -10929,13 +11036,13 @@
       <c r="S53" s="5"/>
       <c r="T53"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5" thickTop="1">
+    <row r="54" spans="1:20" ht="16.2" thickTop="1">
       <c r="A54" s="26"/>
-      <c r="B54" s="42"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="D54" s="44"/>
+      <c r="D54" s="48"/>
       <c r="E54" s="15" t="s">
         <v>13</v>
       </c>
@@ -10964,11 +11071,11 @@
     </row>
     <row r="55" spans="1:20">
       <c r="A55" s="26"/>
-      <c r="B55" s="42"/>
+      <c r="B55" s="46"/>
       <c r="C55" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="44"/>
+      <c r="D55" s="48"/>
       <c r="E55" s="15" t="s">
         <v>13</v>
       </c>
@@ -10993,13 +11100,13 @@
       <c r="S55"/>
       <c r="T55"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5" thickBot="1">
+    <row r="56" spans="1:20" ht="16.2" thickBot="1">
       <c r="A56" s="26"/>
       <c r="B56" s="28"/>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="46"/>
+      <c r="D56" s="40"/>
       <c r="E56" s="14" t="s">
         <v>12</v>
       </c>
@@ -11026,15 +11133,15 @@
       <c r="S56" s="5"/>
       <c r="T56"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5" thickTop="1">
+    <row r="57" spans="1:20" ht="16.2" thickTop="1">
       <c r="A57" s="26"/>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E57" s="15" t="s">
@@ -11067,11 +11174,11 @@
     </row>
     <row r="58" spans="1:20">
       <c r="A58" s="26"/>
-      <c r="B58" s="42"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="44"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="15" t="s">
         <v>16</v>
       </c>
@@ -11098,13 +11205,13 @@
       <c r="S58"/>
       <c r="T58"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" thickBot="1">
+    <row r="59" spans="1:20" ht="16.2" thickBot="1">
       <c r="A59" s="26"/>
-      <c r="B59" s="42"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="44"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="15" t="s">
         <v>16</v>
       </c>
@@ -11131,13 +11238,13 @@
       <c r="S59" s="5"/>
       <c r="T59"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" thickTop="1">
+    <row r="60" spans="1:20" ht="16.2" thickTop="1">
       <c r="A60" s="26"/>
-      <c r="B60" s="42"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="44"/>
+      <c r="D60" s="48"/>
       <c r="E60" s="15" t="s">
         <v>16</v>
       </c>
@@ -11172,13 +11279,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="16.5" thickBot="1">
+    <row r="62" spans="1:20" ht="16.2" thickBot="1">
       <c r="A62" s="26"/>
       <c r="B62" s="29"/>
-      <c r="C62" s="47" t="s">
+      <c r="C62" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="48"/>
+      <c r="D62" s="42"/>
       <c r="E62" s="18" t="s">
         <v>10</v>
       </c>
@@ -11194,7 +11301,7 @@
       <c r="E63" s="26"/>
       <c r="F63" s="26"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" thickBot="1">
+    <row r="64" spans="1:20" ht="16.2" thickBot="1">
       <c r="A64" s="26"/>
       <c r="B64" s="26"/>
       <c r="C64" s="26"/>
@@ -11207,10 +11314,10 @@
       <c r="B65" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C65" s="39" t="s">
+      <c r="C65" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="40"/>
+      <c r="D65" s="44"/>
       <c r="E65" s="12" t="s">
         <v>1</v>
       </c>
@@ -11244,7 +11351,7 @@
       </c>
       <c r="F67" s="26"/>
     </row>
-    <row r="68" spans="1:20" ht="16.5" thickBot="1">
+    <row r="68" spans="1:20" ht="16.2" thickBot="1">
       <c r="A68" s="26"/>
       <c r="B68" s="51"/>
       <c r="C68" s="13" t="s">
@@ -11269,7 +11376,7 @@
       <c r="S68" s="5"/>
       <c r="T68"/>
     </row>
-    <row r="69" spans="1:20" ht="16.5" thickTop="1">
+    <row r="69" spans="1:20" ht="16.2" thickTop="1">
       <c r="A69" s="26"/>
       <c r="B69" s="51"/>
       <c r="C69" s="16" t="s">
@@ -11333,7 +11440,7 @@
       <c r="S70"/>
       <c r="T70"/>
     </row>
-    <row r="71" spans="1:20" ht="16.5" thickBot="1">
+    <row r="71" spans="1:20" ht="16.2" thickBot="1">
       <c r="A71" s="26"/>
       <c r="B71" s="51"/>
       <c r="C71" s="16" t="s">
@@ -11364,7 +11471,7 @@
       <c r="S71" s="5"/>
       <c r="T71"/>
     </row>
-    <row r="72" spans="1:20" ht="16.5" thickTop="1">
+    <row r="72" spans="1:20" ht="16.2" thickTop="1">
       <c r="A72" s="26"/>
       <c r="B72" s="51"/>
       <c r="C72" s="16" t="s">
@@ -11428,7 +11535,7 @@
       <c r="S73"/>
       <c r="T73"/>
     </row>
-    <row r="74" spans="1:20" ht="16.5" thickBot="1">
+    <row r="74" spans="1:20" ht="16.2" thickBot="1">
       <c r="A74" s="26"/>
       <c r="B74" s="51"/>
       <c r="C74" s="16" t="s">
@@ -11459,7 +11566,7 @@
       <c r="S74" s="5"/>
       <c r="T74"/>
     </row>
-    <row r="75" spans="1:20" ht="16.5" thickTop="1">
+    <row r="75" spans="1:20" ht="16.2" thickTop="1">
       <c r="A75" s="26"/>
       <c r="B75" s="51"/>
       <c r="C75" s="16" t="s">
@@ -11523,13 +11630,13 @@
       <c r="S76"/>
       <c r="T76"/>
     </row>
-    <row r="77" spans="1:20" ht="16.5" thickBot="1">
+    <row r="77" spans="1:20" ht="16.2" thickBot="1">
       <c r="A77" s="26"/>
       <c r="B77" s="28"/>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D77" s="46"/>
+      <c r="D77" s="40"/>
       <c r="E77" s="14" t="s">
         <v>7</v>
       </c>
@@ -11556,7 +11663,7 @@
       <c r="S77" s="5"/>
       <c r="T77"/>
     </row>
-    <row r="78" spans="1:20" ht="16.5" thickTop="1">
+    <row r="78" spans="1:20" ht="16.2" thickTop="1">
       <c r="A78" s="26"/>
       <c r="B78" s="51" t="s">
         <v>8</v>
@@ -11624,7 +11731,7 @@
       <c r="S79"/>
       <c r="T79"/>
     </row>
-    <row r="80" spans="1:20" ht="16.5" thickBot="1">
+    <row r="80" spans="1:20" ht="16.2" thickBot="1">
       <c r="A80" s="26"/>
       <c r="B80" s="51"/>
       <c r="C80" s="16" t="s">
@@ -11651,7 +11758,7 @@
       <c r="S80" s="5"/>
       <c r="T80"/>
     </row>
-    <row r="81" spans="1:20" ht="16.5" thickTop="1">
+    <row r="81" spans="1:20" ht="16.2" thickTop="1">
       <c r="A81" s="26"/>
       <c r="B81" s="51"/>
       <c r="C81" s="16" t="s">
@@ -11717,10 +11824,10 @@
     <row r="85" spans="1:20">
       <c r="A85" s="26"/>
       <c r="B85" s="28"/>
-      <c r="C85" s="45" t="s">
+      <c r="C85" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D85" s="46"/>
+      <c r="D85" s="40"/>
       <c r="E85" s="14" t="s">
         <v>9</v>
       </c>
@@ -11730,13 +11837,13 @@
     </row>
     <row r="86" spans="1:20">
       <c r="A86" s="26"/>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D86" s="43" t="s">
+      <c r="D86" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E86" s="21" t="s">
@@ -11760,13 +11867,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:20" ht="16.5" thickBot="1">
+    <row r="88" spans="1:20" ht="16.2" thickBot="1">
       <c r="A88" s="26"/>
       <c r="B88" s="29"/>
-      <c r="C88" s="47" t="s">
+      <c r="C88" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D88" s="48"/>
+      <c r="D88" s="42"/>
       <c r="E88" s="18" t="s">
         <v>10</v>
       </c>
@@ -11782,7 +11889,7 @@
       <c r="E89" s="26"/>
       <c r="F89" s="26"/>
     </row>
-    <row r="90" spans="1:20" ht="16.5" thickBot="1">
+    <row r="90" spans="1:20" ht="16.2" thickBot="1">
       <c r="A90" s="26"/>
       <c r="B90" s="26"/>
       <c r="C90" s="26"/>
@@ -11795,24 +11902,24 @@
       <c r="B91" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C91" s="39" t="s">
+      <c r="C91" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="40"/>
+      <c r="D91" s="44"/>
       <c r="E91" s="12" t="s">
         <v>1</v>
       </c>
       <c r="F91" s="26"/>
     </row>
-    <row r="92" spans="1:20" ht="16.5" thickBot="1">
+    <row r="92" spans="1:20" ht="16.2" thickBot="1">
       <c r="A92" s="26"/>
-      <c r="B92" s="41" t="s">
+      <c r="B92" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E92" s="15" t="s">
@@ -11833,13 +11940,13 @@
       <c r="S92" s="5"/>
       <c r="T92"/>
     </row>
-    <row r="93" spans="1:20" ht="16.5" thickTop="1">
+    <row r="93" spans="1:20" ht="16.2" thickTop="1">
       <c r="A93" s="26"/>
-      <c r="B93" s="42"/>
+      <c r="B93" s="46"/>
       <c r="C93" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="D93" s="44"/>
+      <c r="D93" s="48"/>
       <c r="E93" s="15" t="s">
         <v>3</v>
       </c>
@@ -11868,11 +11975,11 @@
     </row>
     <row r="94" spans="1:20">
       <c r="A94" s="26"/>
-      <c r="B94" s="42"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="D94" s="44"/>
+      <c r="D94" s="48"/>
       <c r="E94" s="15" t="s">
         <v>3</v>
       </c>
@@ -11897,13 +12004,13 @@
       <c r="S94"/>
       <c r="T94"/>
     </row>
-    <row r="95" spans="1:20" ht="16.5" thickBot="1">
+    <row r="95" spans="1:20" ht="16.2" thickBot="1">
       <c r="A95" s="26"/>
-      <c r="B95" s="42"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D95" s="44"/>
+      <c r="D95" s="48"/>
       <c r="E95" s="15" t="s">
         <v>3</v>
       </c>
@@ -11928,13 +12035,13 @@
       <c r="S95" s="5"/>
       <c r="T95"/>
     </row>
-    <row r="96" spans="1:20" ht="16.5" thickTop="1">
+    <row r="96" spans="1:20" ht="16.2" thickTop="1">
       <c r="A96" s="26"/>
       <c r="B96" s="28"/>
-      <c r="C96" s="45" t="s">
+      <c r="C96" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D96" s="46"/>
+      <c r="D96" s="40"/>
       <c r="E96" s="14" t="s">
         <v>7</v>
       </c>
@@ -11965,13 +12072,13 @@
     </row>
     <row r="97" spans="1:20">
       <c r="A97" s="26"/>
-      <c r="B97" s="41" t="s">
+      <c r="B97" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E97" s="15" t="s">
@@ -11998,13 +12105,13 @@
       <c r="S97"/>
       <c r="T97"/>
     </row>
-    <row r="98" spans="1:20" ht="16.5" thickBot="1">
+    <row r="98" spans="1:20" ht="16.2" thickBot="1">
       <c r="A98" s="26"/>
-      <c r="B98" s="42"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="44"/>
+      <c r="D98" s="48"/>
       <c r="E98" s="15" t="s">
         <v>13</v>
       </c>
@@ -12029,13 +12136,13 @@
       <c r="S98" s="5"/>
       <c r="T98"/>
     </row>
-    <row r="99" spans="1:20" ht="16.5" thickTop="1">
+    <row r="99" spans="1:20" ht="16.2" thickTop="1">
       <c r="A99" s="26"/>
-      <c r="B99" s="42"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D99" s="44"/>
+      <c r="D99" s="48"/>
       <c r="E99" s="15" t="s">
         <v>13</v>
       </c>
@@ -12064,11 +12171,11 @@
     </row>
     <row r="100" spans="1:20">
       <c r="A100" s="26"/>
-      <c r="B100" s="42"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D100" s="44"/>
+      <c r="D100" s="48"/>
       <c r="E100" s="15" t="s">
         <v>13</v>
       </c>
@@ -12093,13 +12200,13 @@
       <c r="S100"/>
       <c r="T100"/>
     </row>
-    <row r="101" spans="1:20" ht="16.5" thickBot="1">
+    <row r="101" spans="1:20" ht="16.2" thickBot="1">
       <c r="A101" s="26"/>
-      <c r="B101" s="42"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D101" s="44"/>
+      <c r="D101" s="48"/>
       <c r="E101" s="15" t="s">
         <v>13</v>
       </c>
@@ -12124,13 +12231,13 @@
       <c r="S101" s="5"/>
       <c r="T101"/>
     </row>
-    <row r="102" spans="1:20" ht="16.5" thickTop="1">
+    <row r="102" spans="1:20" ht="16.2" thickTop="1">
       <c r="A102" s="26"/>
-      <c r="B102" s="42"/>
+      <c r="B102" s="46"/>
       <c r="C102" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D102" s="44"/>
+      <c r="D102" s="48"/>
       <c r="E102" s="15" t="s">
         <v>13</v>
       </c>
@@ -12159,11 +12266,11 @@
     </row>
     <row r="103" spans="1:20">
       <c r="A103" s="26"/>
-      <c r="B103" s="42"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="D103" s="44"/>
+      <c r="D103" s="48"/>
       <c r="E103" s="21" t="s">
         <v>13</v>
       </c>
@@ -12188,13 +12295,13 @@
       <c r="S103"/>
       <c r="T103"/>
     </row>
-    <row r="104" spans="1:20" ht="16.5" thickBot="1">
+    <row r="104" spans="1:20" ht="16.2" thickBot="1">
       <c r="A104" s="26"/>
       <c r="B104" s="28"/>
-      <c r="C104" s="45" t="s">
+      <c r="C104" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D104" s="46"/>
+      <c r="D104" s="40"/>
       <c r="E104" s="14" t="s">
         <v>9</v>
       </c>
@@ -12217,15 +12324,15 @@
       <c r="S104" s="5"/>
       <c r="T104"/>
     </row>
-    <row r="105" spans="1:20" ht="16.5" thickTop="1">
+    <row r="105" spans="1:20" ht="16.2" thickTop="1">
       <c r="A105" s="26"/>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C105" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="D105" s="43" t="s">
+      <c r="D105" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E105" s="30" t="s">
@@ -12262,13 +12369,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="16.5" thickBot="1">
+    <row r="107" spans="1:20" ht="16.2" thickBot="1">
       <c r="A107" s="26"/>
       <c r="B107" s="29"/>
-      <c r="C107" s="47" t="s">
+      <c r="C107" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D107" s="48"/>
+      <c r="D107" s="42"/>
       <c r="E107" s="18" t="s">
         <v>10</v>
       </c>
@@ -12284,7 +12391,7 @@
       <c r="E108" s="26"/>
       <c r="F108" s="26"/>
     </row>
-    <row r="109" spans="1:20" ht="16.5" thickBot="1">
+    <row r="109" spans="1:20" ht="16.2" thickBot="1">
       <c r="A109" s="26"/>
       <c r="B109" s="26"/>
       <c r="C109" s="26"/>
@@ -12305,15 +12412,15 @@
       <c r="S109" s="5"/>
       <c r="T109"/>
     </row>
-    <row r="110" spans="1:20" ht="16.5" thickTop="1">
+    <row r="110" spans="1:20" ht="16.2" thickTop="1">
       <c r="A110" s="26"/>
       <c r="B110" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C110" s="39" t="s">
+      <c r="C110" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="40"/>
+      <c r="D110" s="44"/>
       <c r="E110" s="12" t="s">
         <v>1</v>
       </c>
@@ -12342,13 +12449,13 @@
     </row>
     <row r="111" spans="1:20">
       <c r="A111" s="26"/>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C111" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D111" s="43" t="s">
+      <c r="D111" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E111" s="15" t="s">
@@ -12375,13 +12482,13 @@
       <c r="S111"/>
       <c r="T111"/>
     </row>
-    <row r="112" spans="1:20" ht="16.5" thickBot="1">
+    <row r="112" spans="1:20" ht="16.2" thickBot="1">
       <c r="A112" s="26"/>
-      <c r="B112" s="42"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D112" s="44"/>
+      <c r="D112" s="48"/>
       <c r="E112" s="15" t="s">
         <v>3</v>
       </c>
@@ -12406,13 +12513,13 @@
       <c r="S112" s="5"/>
       <c r="T112"/>
     </row>
-    <row r="113" spans="1:20" ht="16.5" thickTop="1">
+    <row r="113" spans="1:20" ht="16.2" thickTop="1">
       <c r="A113" s="26"/>
-      <c r="B113" s="42"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="D113" s="44"/>
+      <c r="D113" s="48"/>
       <c r="E113" s="15" t="s">
         <v>3</v>
       </c>
@@ -12442,10 +12549,10 @@
     <row r="114" spans="1:20">
       <c r="A114" s="26"/>
       <c r="B114" s="28"/>
-      <c r="C114" s="45" t="s">
+      <c r="C114" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D114" s="46"/>
+      <c r="D114" s="40"/>
       <c r="E114" s="14" t="s">
         <v>7</v>
       </c>
@@ -12472,15 +12579,15 @@
       <c r="S114"/>
       <c r="T114"/>
     </row>
-    <row r="115" spans="1:20" ht="16.5" thickBot="1">
+    <row r="115" spans="1:20" ht="16.2" thickBot="1">
       <c r="A115" s="26"/>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C115" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D115" s="43" t="s">
+      <c r="D115" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E115" s="15" t="s">
@@ -12507,13 +12614,13 @@
       <c r="S115" s="5"/>
       <c r="T115"/>
     </row>
-    <row r="116" spans="1:20" ht="16.5" thickTop="1">
+    <row r="116" spans="1:20" ht="16.2" thickTop="1">
       <c r="A116" s="26"/>
-      <c r="B116" s="42"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="D116" s="44"/>
+      <c r="D116" s="48"/>
       <c r="E116" s="15" t="s">
         <v>13</v>
       </c>
@@ -12542,13 +12649,13 @@
     </row>
     <row r="117" spans="1:20">
       <c r="A117" s="26"/>
-      <c r="B117" s="42"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D117" s="44"/>
+      <c r="D117" s="48"/>
       <c r="E117" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F117" s="26"/>
       <c r="H117"/>
@@ -12571,13 +12678,13 @@
       <c r="S117"/>
       <c r="T117"/>
     </row>
-    <row r="118" spans="1:20" ht="16.5" thickBot="1">
+    <row r="118" spans="1:20" ht="16.2" thickBot="1">
       <c r="A118" s="26"/>
-      <c r="B118" s="42"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="D118" s="44"/>
+      <c r="D118" s="48"/>
       <c r="E118" s="21" t="s">
         <v>13</v>
       </c>
@@ -12602,13 +12709,13 @@
       <c r="S118" s="5"/>
       <c r="T118"/>
     </row>
-    <row r="119" spans="1:20" ht="16.5" thickTop="1">
+    <row r="119" spans="1:20" ht="16.2" thickTop="1">
       <c r="A119" s="26"/>
       <c r="B119" s="28"/>
-      <c r="C119" s="45" t="s">
+      <c r="C119" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D119" s="46"/>
+      <c r="D119" s="40"/>
       <c r="E119" s="14" t="s">
         <v>9</v>
       </c>
@@ -12674,13 +12781,13 @@
       <c r="S120"/>
       <c r="T120"/>
     </row>
-    <row r="121" spans="1:20" ht="16.5" thickBot="1">
+    <row r="121" spans="1:20" ht="16.2" thickBot="1">
       <c r="A121" s="26"/>
       <c r="B121" s="29"/>
-      <c r="C121" s="47" t="s">
+      <c r="C121" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D121" s="48"/>
+      <c r="D121" s="42"/>
       <c r="E121" s="18" t="s">
         <v>10</v>
       </c>
@@ -12732,7 +12839,7 @@
       <c r="A124" s="26"/>
       <c r="F124" s="26"/>
     </row>
-    <row r="125" spans="1:20" ht="16.5" thickBot="1">
+    <row r="125" spans="1:20" ht="16.2" thickBot="1">
       <c r="A125" s="26"/>
       <c r="F125" s="26"/>
       <c r="H125"/>
@@ -12749,15 +12856,15 @@
       <c r="S125" s="5"/>
       <c r="T125"/>
     </row>
-    <row r="126" spans="1:20" ht="16.5" thickTop="1">
+    <row r="126" spans="1:20" ht="16.2" thickTop="1">
       <c r="A126" s="26"/>
       <c r="B126" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C126" s="39" t="s">
+      <c r="C126" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D126" s="40"/>
+      <c r="D126" s="44"/>
       <c r="E126" s="19" t="s">
         <v>1</v>
       </c>
@@ -12786,13 +12893,13 @@
     </row>
     <row r="127" spans="1:20">
       <c r="A127" s="26"/>
-      <c r="B127" s="41" t="s">
+      <c r="B127" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C127" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="D127" s="43" t="s">
+      <c r="D127" s="47" t="s">
         <v>0</v>
       </c>
       <c r="E127" s="36" t="s">
@@ -12821,7 +12928,7 @@
       <c r="S127"/>
       <c r="T127"/>
     </row>
-    <row r="128" spans="1:20" ht="16.5" thickBot="1">
+    <row r="128" spans="1:20" ht="16.2" thickBot="1">
       <c r="B128" s="49"/>
       <c r="C128" s="16" t="s">
         <v>214</v>
@@ -12853,7 +12960,7 @@
       <c r="S128" s="5"/>
       <c r="T128"/>
     </row>
-    <row r="129" spans="2:20" ht="17.25" thickTop="1" thickBot="1">
+    <row r="129" spans="2:20" ht="16.8" thickTop="1" thickBot="1">
       <c r="B129" s="29"/>
       <c r="C129" s="22" t="s">
         <v>5</v>
@@ -12908,7 +13015,7 @@
       <c r="S130"/>
       <c r="T130"/>
     </row>
-    <row r="131" spans="2:20" ht="16.5" thickBot="1">
+    <row r="131" spans="2:20" ht="16.2" thickBot="1">
       <c r="H131"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
@@ -12925,7 +13032,7 @@
       <c r="S131" s="5"/>
       <c r="T131"/>
     </row>
-    <row r="132" spans="2:20" ht="16.5" thickTop="1">
+    <row r="132" spans="2:20" ht="16.2" thickTop="1">
       <c r="H132"/>
       <c r="I132"/>
       <c r="J132"/>
@@ -12942,19 +13049,38 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="C119:D119"/>
-    <mergeCell ref="C121:D121"/>
-    <mergeCell ref="C110:D110"/>
-    <mergeCell ref="B111:B113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="C114:D114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="D115:D118"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="D51:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B3:B10"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B12:B17"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="D26:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="D32:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="D86:D87"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="B66:B76"/>
+    <mergeCell ref="D66:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B78:B84"/>
+    <mergeCell ref="D78:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="D92:D95"/>
     <mergeCell ref="C62:D62"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="B127:B128"/>
@@ -12971,38 +13097,19 @@
     <mergeCell ref="B105:B106"/>
     <mergeCell ref="D105:D106"/>
     <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="D86:D87"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="B66:B76"/>
-    <mergeCell ref="D66:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:B84"/>
-    <mergeCell ref="D78:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="D92:D95"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="D26:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:B37"/>
-    <mergeCell ref="D32:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B3:B10"/>
-    <mergeCell ref="D3:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B12:B17"/>
-    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="D51:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="C119:D119"/>
+    <mergeCell ref="C121:D121"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="B111:B113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="D115:D118"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -13012,14 +13119,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
